--- a/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>AER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1179800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1208300</v>
+      </c>
+      <c r="F8" s="3">
         <v>1153600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1203100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1183500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1178900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1146500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1143400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1129800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1214500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1210200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1194200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1189500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1309900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1203700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>94700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>86900</v>
+      </c>
+      <c r="F9" s="3">
         <v>44100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>65200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>91700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>125900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>84800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>103300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>132500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>141200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>137800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>136300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>122400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>143300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>128700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1085100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1121400</v>
+      </c>
+      <c r="F10" s="3">
         <v>1109500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1137900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1091800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1053000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1061700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1040100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>997300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1073300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1072400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1057900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1067100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1166600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1075000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F14" s="3">
         <v>31200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>17800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>5000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>15300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>12800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>14000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>10400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>45600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>10000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>9900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>19700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>415800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>415900</v>
+      </c>
+      <c r="F15" s="3">
         <v>415300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>419100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>425800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>425900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>412700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>417700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>422700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>425400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>428300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>435000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>438500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>433500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>439900</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>597600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>590200</v>
+      </c>
+      <c r="F17" s="3">
         <v>555300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>566700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>589500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>637800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>573800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>620300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>643100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>673200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>695700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>666000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>654300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>693300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>693400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>582200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>618100</v>
+      </c>
+      <c r="F18" s="3">
         <v>598300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>636400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>594000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>541100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>572700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>523100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>486700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>541300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>514500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>528200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>535200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>616600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>510300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>107400</v>
+      </c>
+      <c r="F20" s="3">
         <v>37100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>68400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>5600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>19900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>25000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>55800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>105900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>51900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>61700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>60500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>40800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>77200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1043800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1141400</v>
+      </c>
+      <c r="F21" s="3">
         <v>1050800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1123800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1025500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>989500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1013000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1001000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1018000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1021400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1007200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1027600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1018800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1132000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>975700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>306100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>374900</v>
+      </c>
+      <c r="F22" s="3">
         <v>308900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>322600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>318300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>301800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>297000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>289400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>291000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>274900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>278200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>266000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>279200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>271300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>272400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>321900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>350600</v>
+      </c>
+      <c r="F23" s="3">
         <v>326500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>382100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>281400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>259200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>300700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>289500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>301600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>318300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>298000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>322700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>296800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>422600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F24" s="3">
         <v>42400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>49700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>36600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>28100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>39100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>37600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>39200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>28000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>34200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>42000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>38600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>60700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>278500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>311600</v>
+      </c>
+      <c r="F26" s="3">
         <v>284100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>332500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>244800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>231000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>261600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>251900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>262400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>290300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>263900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>280800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>258300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>361900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>216100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>276800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>309800</v>
+      </c>
+      <c r="F27" s="3">
         <v>270300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>331500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>234200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>232600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>263400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>254200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>265400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>288300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>265800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>282900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>261200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>364700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,14 +1721,14 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>-22000</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>-22000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-107400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-37100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-68400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-5600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-19900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-25000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-55800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-105900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-51900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-61700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-60500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-40800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-77200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-20800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>276800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>309800</v>
+      </c>
+      <c r="F33" s="3">
         <v>270300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>331500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>234200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>232600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>263400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>254200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>265400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>266300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>265800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>282900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>261200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>364700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>276800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>309800</v>
+      </c>
+      <c r="F35" s="3">
         <v>270300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>331500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>234200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>232600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>263400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>254200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>265400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>266300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>265800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>282900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>261200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>364700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4693900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1121400</v>
+      </c>
+      <c r="F41" s="3">
         <v>1036900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>782900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2348100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1204000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1176000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1598500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2152200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1659700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1454200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1601100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1935600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2035400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2228000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,140 +2234,164 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>279200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>403400</v>
+      </c>
+      <c r="F43" s="3">
         <v>330400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>276000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>241200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>260700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>335500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>266700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>286000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>425800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>301900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>259600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>218100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>253700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F44" s="3">
         <v>6400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>57200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>20300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>31000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>55000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>37100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>37000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>39000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>42300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>46900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>59400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>52700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3212200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3052900</v>
+      </c>
+      <c r="F45" s="3">
         <v>3012300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3038300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3069700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3104300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3400300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3241800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3468900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3037000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3430300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3521600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3324300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3377200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3392600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,140 +2434,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1276600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1222600</v>
+      </c>
+      <c r="F47" s="3">
         <v>1247600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1187800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1181300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1194400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1194800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1214800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1193300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1141100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1120600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>974200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>916700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>898000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>985800</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35738700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>35940500</v>
+      </c>
+      <c r="F48" s="3">
         <v>35303800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>35329900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>35159700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>35081500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>33215800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>32977000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>32187700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>32427900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>31610400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>30993100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>31595700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>31538400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>30913200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1076100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1117000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1230000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1276200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1381400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1441800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1528600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1617300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1734900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1857400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2036700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2205600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2415900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2565000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2832800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>626300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>610600</v>
+      </c>
+      <c r="F52" s="3">
         <v>1113800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>846300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1002600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>533400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>827300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>656000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1076900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1146500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>747400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1176500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>735900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>652000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>930500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47144800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>43749200</v>
+      </c>
+      <c r="F54" s="3">
         <v>43549000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>43067900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>44717000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>43208900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>42149500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>42019400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>42493700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>42040100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>41006700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>41019500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>41442900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>41620500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>41797800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,69 +2878,77 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>240400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>239100</v>
+      </c>
+      <c r="F57" s="3">
         <v>233400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>245800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>272000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>294300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>274900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>283900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>303900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>307400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>288100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>295500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>302400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>330400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>276700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F58" s="3">
         <v>3600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>9000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2689,11 +2956,11 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2707,52 +2974,64 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3186500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3244500</v>
+      </c>
+      <c r="F59" s="3">
         <v>3336800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3326300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3413000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3268700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3363100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3314500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3492500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3544100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3690200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3806900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3878800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3896900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4100200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,96 +3074,114 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>32760800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>29474500</v>
+      </c>
+      <c r="F61" s="3">
         <v>29280000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>29014200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>30750100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>29507600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>28387500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>28545500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>28890300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>28420700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>27287600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>27181000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>27520500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>27717000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>27997900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>950200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>910300</v>
+      </c>
+      <c r="F62" s="3">
         <v>935800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>892200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>842100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>804600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>789900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>750500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>712400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>673900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>685900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>655900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>615300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>579000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>474100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37761900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>34434300</v>
+      </c>
+      <c r="F66" s="3">
         <v>34374100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>34054900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>35810800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>34380900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>33279700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>33349900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>33901100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>33460400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>32460300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>32498700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>32923200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>33096000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>33428300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7986100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>7734600</v>
+      </c>
+      <c r="F72" s="3">
         <v>7424100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>7157200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>6825300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>6591700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>6359700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>6096000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5846500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5580300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>5313100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>5047300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>4767400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>4509000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4147000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9382900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9314900</v>
+      </c>
+      <c r="F76" s="3">
         <v>9174900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9013000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8906200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8828000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8869900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8669500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8592600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8579700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8546500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8520800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8519700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8524400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8369500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>276800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>309800</v>
+      </c>
+      <c r="F81" s="3">
         <v>270300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>331500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>234200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>232600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>263400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>254200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>265400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>266300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>265800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>282900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>261200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>364700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>415800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>415900</v>
+      </c>
+      <c r="F83" s="3">
         <v>415300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>419100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>425800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>428500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>415300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>422100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>425500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>428200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>431000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>438900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>442800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>438200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>444600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>628900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>768300</v>
+      </c>
+      <c r="F89" s="3">
         <v>817100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>774500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>745700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>778400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>716700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>607300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>738000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>724300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>817200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>797200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>801500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>935200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>831100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-354100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-436100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-298900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-280300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-406700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-637200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-420300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-448000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-325800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-366900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-308500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-870900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1424200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-856500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-235200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-714600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-910900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-546100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-783200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1737800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1073100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-718900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-522900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1447000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-893300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-608400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-478700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-774500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3189500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>48700</v>
+      </c>
+      <c r="F100" s="3">
         <v>321700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1832400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1197100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>965800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-93700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-484500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>212800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>928800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-70800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-522900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-422700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-352100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1274100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>2500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3582200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>103700</v>
+      </c>
+      <c r="F102" s="3">
         <v>226300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1603900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1159200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-449700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-593700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>428000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>205400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-146800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-334600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-99800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-192600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-356500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>AER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1187300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1179800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1208300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1153600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1203100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1183500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1178900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1146500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1143400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1129800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1214500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1210200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1194200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1189500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1309900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1203700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E9" s="3">
         <v>94700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>86900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>44100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>65200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>91700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>125900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>84800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>103300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>132500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>141200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>137800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>136300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>122400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>143300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>128700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1135100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1085100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1121400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1109500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1137900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1091800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1053000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1061700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1040100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>997300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1073300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1072400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1057900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1067100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1166600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1075000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E14" s="3">
         <v>22500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>16100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>31200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>17800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>45600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>19700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>411800</v>
+      </c>
+      <c r="E15" s="3">
         <v>415800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>415900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>415300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>419100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>425800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>425900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>412700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>417700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>422700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>425400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>428300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>435000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>438500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>433500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>439900</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>615700</v>
+      </c>
+      <c r="E17" s="3">
         <v>597600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>590200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>555300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>566700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>589500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>637800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>573800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>620300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>643100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>673200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>695700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>666000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>654300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>693300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>693400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>571600</v>
+      </c>
+      <c r="E18" s="3">
         <v>582200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>618100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>598300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>636400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>594000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>541100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>572700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>523100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>486700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>541300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>514500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>528200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>535200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>616600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>510300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E20" s="3">
         <v>45800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>107400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>37100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>68400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>19900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>25000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>55800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>105900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>51900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>61700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>60500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>40800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>77200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1005200</v>
+      </c>
+      <c r="E21" s="3">
         <v>1043800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1141400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1050800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1123800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1025500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>989500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1013000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1001000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1018000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1021400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1007200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1027600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1018800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1132000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>975700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>309700</v>
+      </c>
+      <c r="E22" s="3">
         <v>306100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>374900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>308900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>322600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>318300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>301800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>297000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>289400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>291000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>274900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>278200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>266000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>279200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>271300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>272400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>283700</v>
+      </c>
+      <c r="E23" s="3">
         <v>321900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>350600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>326500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>382100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>281400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>259200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>289500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>301600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>318300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>298000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>322700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>296800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>422600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E24" s="3">
         <v>43500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>39000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>42400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>49700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>36600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>39100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>34200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>42000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>60700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>245400</v>
+      </c>
+      <c r="E26" s="3">
         <v>278500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>311600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>284100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>332500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>244800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>231000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>261600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>251900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>262400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>290300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>263900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>280800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>258300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>361900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>216100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>246100</v>
+      </c>
+      <c r="E27" s="3">
         <v>276800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>309800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>270300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>331500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>234200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>232600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>263400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>254200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>265400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>288300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>265800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>282900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>261200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>364700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-22000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-45800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-107400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-37100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-68400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-19900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-25000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-55800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-105900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-51900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-61700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-60500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-77200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-20800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>246100</v>
+      </c>
+      <c r="E33" s="3">
         <v>276800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>309800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>270300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>331500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>234200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>232600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>263400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>254200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>265400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>266300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>265800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>282900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>261200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>364700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>246100</v>
+      </c>
+      <c r="E35" s="3">
         <v>276800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>309800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>270300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>331500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>234200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>232600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>263400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>254200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>265400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>266300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>265800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>282900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>261200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>364700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2382700</v>
+      </c>
+      <c r="E41" s="3">
         <v>4693900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1121400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1036900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>782900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2348100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1204000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1176000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1598500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2152200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1659700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1454200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1601100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1935600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2035400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2228000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,158 +2330,170 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>419800</v>
+      </c>
+      <c r="E43" s="3">
         <v>279200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>403400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>330400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>276000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>241200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>260700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>335500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>266700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>286000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>425800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>301900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>259600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>218100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>253700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>3200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>57200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>20300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>31000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>55000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>37100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>37000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>39000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>42300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>46900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>59400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>52700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3465400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3212200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3052900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3012300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3038300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3069700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3104300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3400300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3241800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3468900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3037000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3430300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3521600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3324300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3377200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3392600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,158 +2542,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1728600</v>
+      </c>
+      <c r="E47" s="3">
         <v>1276600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1222600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1247600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1187800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1181300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1194400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1194800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1214800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1193300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1141100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1120600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>974200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>916700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>898000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>985800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35422400</v>
+      </c>
+      <c r="E48" s="3">
         <v>35738700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35940500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35303800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35329900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>35159700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35081500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>33215800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32977000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32187700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32427900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31610400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30993100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31595700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31538400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>30913200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1031500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1076100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1117000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1230000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1276200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1381400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1441800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1528600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1617300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1734900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1857400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2036700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2205600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2415900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2565000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2832800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>513200</v>
+      </c>
+      <c r="E52" s="3">
         <v>626300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>610600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1113800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>846300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1002600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>533400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>827300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>656000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1076900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1146500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>747400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1176500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>735900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>652000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>930500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45193800</v>
+      </c>
+      <c r="E54" s="3">
         <v>47144800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43749200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43549000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43067900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44717000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43208900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42149500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42019400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42493700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42040100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41006700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41019500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41442900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41620500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41797800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,78 +3010,82 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>220100</v>
+      </c>
+      <c r="E57" s="3">
         <v>240400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>239100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>233400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>245800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>272000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>294300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>274900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>283900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>303900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>307400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>288100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>295500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>302400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>330400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>276700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
         <v>11700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2962,8 +3096,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2980,58 +3114,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2876000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3186500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3244500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3336800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3326300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3413000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3268700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3363100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3314500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3492500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3544100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3690200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3806900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3878800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3896900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4100200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,108 +3220,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>30683900</v>
+      </c>
+      <c r="E61" s="3">
         <v>32760800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>29474500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>29280000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>29014200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30750100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>29507600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>28387500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28545500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28890300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28420700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>27287600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>27181000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>27520500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>27717000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>27997900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>990300</v>
+      </c>
+      <c r="E62" s="3">
         <v>950200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>910300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>935800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>892200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>842100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>804600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>789900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>750500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>712400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>673900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>685900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>655900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>615300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>579000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>474100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35559800</v>
+      </c>
+      <c r="E66" s="3">
         <v>37761900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34434300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34374100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34054900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>35810800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34380900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>33279700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33349900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33901100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33460400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32460300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32498700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32923200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33096000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33428300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8232500</v>
+      </c>
+      <c r="E72" s="3">
         <v>7986100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7734600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7424100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7157200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6825300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6591700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6359700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6096000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5846500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5580300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5313100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5047300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4767400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4509000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4147000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9634000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9382900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9314900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9174900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9013000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8906200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8828000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8869900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8669500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8592600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8579700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8546500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8520800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8519700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8524400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8369500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>246100</v>
+      </c>
+      <c r="E81" s="3">
         <v>276800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>309800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>270300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>331500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>234200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>232600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>263400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>254200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>265400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>266300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>265800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>282900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>261200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>364700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>411800</v>
+      </c>
+      <c r="E83" s="3">
         <v>415800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>415900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>415300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>419100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>425800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>428500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>415300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>422100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>425500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>428200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>431000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>438900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>442800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>438200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>444600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>307900</v>
+      </c>
+      <c r="E89" s="3">
         <v>628900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>768300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>817100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>774500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>745700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>778400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>716700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>607300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>738000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>724300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>817200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>797200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>801500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>935200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>831100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-98600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-61300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-354100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-436100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-298900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-280300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-406700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-637200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-420300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-448000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-325800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-366900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-308500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-870900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1424200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-856500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-326200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-235200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-714600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-910900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-546100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-783200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1737800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1073100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-718900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-522900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1447000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-893300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-608400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-478700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-774500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2221500</v>
+      </c>
+      <c r="E100" s="3">
         <v>3189500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>48700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>321700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1832400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1197100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>965800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-93700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-484500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>212800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>928800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-70800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-522900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-422700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-352100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1274100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2239400</v>
+      </c>
+      <c r="E102" s="3">
         <v>3582200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>103700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>226300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1603900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1159200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-449700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-593700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>428000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>205400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-146800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-334600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-99800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-192600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-356500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>AER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1019400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1187300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1179800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1208300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1153600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1203100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1183500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1178900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1146500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1143400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1129800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1214500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1210200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1194200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1189500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1309900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1203700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E9" s="3">
         <v>52200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>94700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>86900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>44100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>65200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>91700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>125900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>84800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>103300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>132500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>141200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>137800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>136300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>122400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>143300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>128700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>968200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1135100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1085100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1121400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1109500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1137900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1091800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1053000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1061700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1040100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>997300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1073300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1072400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1057900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1067100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1166600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1075000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1015800</v>
+      </c>
+      <c r="E14" s="3">
         <v>98800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>22500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>16100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>31200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>17800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>45600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>19700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E15" s="3">
         <v>411800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>415800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>415900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>415300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>419100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>425800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>425900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>412700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>417700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>422700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>425400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>428300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>435000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>438500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>433500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>439900</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1543900</v>
+      </c>
+      <c r="E17" s="3">
         <v>615700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>597600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>590200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>555300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>566700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>589500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>637800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>573800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>620300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>643100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>673200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>695700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>666000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>654300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>693300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>693400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-524500</v>
+      </c>
+      <c r="E18" s="3">
         <v>571600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>582200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>618100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>598300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>636400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>594000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>541100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>572700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>523100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>486700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>541300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>514500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>528200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>535200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>616600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>510300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="E20" s="3">
         <v>21800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>45800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>107400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>37100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>68400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>19900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>55800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>105900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>51900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>61700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>60500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>40800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>77200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-229700</v>
+      </c>
+      <c r="E21" s="3">
         <v>1005200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1043800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1141400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1050800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1123800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1025500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>989500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1013000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1001000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1018000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1021400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1007200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1027600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1018800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1132000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>975700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>307300</v>
+      </c>
+      <c r="E22" s="3">
         <v>309700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>306100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>374900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>308900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>322600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>318300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>301800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>297000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>289400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>291000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>274900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>278200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>266000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>279200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>271300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>272400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-953000</v>
+      </c>
+      <c r="E23" s="3">
         <v>283700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>321900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>350600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>326500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>382100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>281400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>259200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>289500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>301600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>318300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>298000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>322700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>296800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>422600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-106100</v>
+      </c>
+      <c r="E24" s="3">
         <v>38300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>43500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>39000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>42400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>49700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>36600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>37600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>28000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>34200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>42000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>38600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>60700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-846900</v>
+      </c>
+      <c r="E26" s="3">
         <v>245400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>278500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>311600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>284100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>332500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>244800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>231000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>261600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>251900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>262400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>290300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>263900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>280800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>258300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>361900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>216100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-849900</v>
+      </c>
+      <c r="E27" s="3">
         <v>246100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>276800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>309800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>270300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>331500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>234200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>232600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>263400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>254200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>265400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>288300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>265800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>282900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>261200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>364700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-22000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>121200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-21800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-45800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-107400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-37100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-68400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-19900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-25000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-55800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-105900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-51900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-61700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-60500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-40800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-77200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-20800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-849900</v>
+      </c>
+      <c r="E33" s="3">
         <v>246100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>276800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>309800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>270300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>331500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>234200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>232600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>263400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>254200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>265400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>266300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>265800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>282900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>261200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>364700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-849900</v>
+      </c>
+      <c r="E35" s="3">
         <v>246100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>276800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>309800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>270300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>331500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>234200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>232600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>263400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>254200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>265400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>266300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>265800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>282900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>261200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>364700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3244400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2382700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4693900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1121400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1036900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>782900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2348100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1204000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1176000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1598500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2152200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1659700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1454200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1601100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1935600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2035400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2228000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,167 +2423,179 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>428900</v>
+      </c>
+      <c r="E43" s="3">
         <v>419800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>279200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>403400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>330400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>276000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>241200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>260700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>335500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>266700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>286000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>425800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>301900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>259600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>218100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>253700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>3200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>57200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>31000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>55000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>37100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>37000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>39000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>42300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>46900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>59400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>52700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800500</v>
+      </c>
+      <c r="E45" s="3">
         <v>3465400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3212200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3052900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3012300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3038300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3069700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3104300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3400300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3241800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3468900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3037000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3430300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3521600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3324300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3377200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3392600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,167 +2647,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1631300</v>
+      </c>
+      <c r="E47" s="3">
         <v>1728600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1276600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1222600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1247600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1187800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1181300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1194400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1194800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1214800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1193300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1141100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1120600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>974200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>916700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>898000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>985800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34799600</v>
+      </c>
+      <c r="E48" s="3">
         <v>35422400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35738700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35940500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35303800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>35329900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35159700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35081500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33215800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32977000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32187700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32427900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31610400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>30993100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31595700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31538400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>30913200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>912900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1031500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1076100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1117000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1230000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1276200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1381400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1441800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1528600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1617300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1734900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1857400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2036700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2205600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2415900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2565000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2832800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>390400</v>
+      </c>
+      <c r="E52" s="3">
         <v>513200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>626300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>610600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1113800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>846300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1002600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>533400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>827300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>656000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1076900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1146500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>747400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1176500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>735900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>652000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>930500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44421100</v>
+      </c>
+      <c r="E54" s="3">
         <v>45193800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47144800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43749200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43549000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43067900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44717000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43208900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42149500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42019400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42493700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42040100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41006700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41019500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41442900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41620500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41797800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>223100</v>
+      </c>
+      <c r="E57" s="3">
         <v>220100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>240400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>239100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>233400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>245800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>272000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>294300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>274900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>283900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>303900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>307400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>288100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>295500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>302400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>330400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>276700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3075,20 +3209,20 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>11700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -3099,8 +3233,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3117,61 +3251,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2697700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2876000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3186500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3244500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3336800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3326300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3413000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3268700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3363100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3314500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3492500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3544100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3690200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3806900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3878800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3896900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4100200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,114 +3363,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>31087100</v>
+      </c>
+      <c r="E61" s="3">
         <v>30683900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>32760800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>29474500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>29280000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29014200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>30750100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29507600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28387500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28545500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28890300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28420700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>27287600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>27181000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>27520500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>27717000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>27997900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>884100</v>
+      </c>
+      <c r="E62" s="3">
         <v>990300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>950200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>910300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>935800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>892200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>842100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>804600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>789900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>750500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>712400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>673900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>685900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>655900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>615300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>579000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>474100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35609700</v>
+      </c>
+      <c r="E66" s="3">
         <v>35559800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37761900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34434300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34374100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34054900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>35810800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34380900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33279700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33349900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33901100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33460400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32460300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32498700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32923200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33096000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33428300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7380700</v>
+      </c>
+      <c r="E72" s="3">
         <v>8232500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7986100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7734600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7424100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7157200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6825300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6591700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6359700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6096000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5846500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5580300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5313100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5047300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4767400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4509000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4147000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8811400</v>
+      </c>
+      <c r="E76" s="3">
         <v>9634000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9382900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9314900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9174900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9013000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8906200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8828000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8869900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8669500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8592600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8579700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8546500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8520800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8519700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8524400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8369500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-849900</v>
+      </c>
+      <c r="E81" s="3">
         <v>246100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>276800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>309800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>270300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>331500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>234200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>232600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>263400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>254200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>265400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>266300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>265800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>282900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>261200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>364700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E83" s="3">
         <v>411800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>415800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>415900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>415300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>419100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>425800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>428500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>415300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>422100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>425500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>428200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>431000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>438900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>442800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>438200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>444600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>541000</v>
+      </c>
+      <c r="E89" s="3">
         <v>307900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>628900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>768300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>817100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>774500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>745700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>778400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>716700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>607300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>738000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>724300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>817200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>797200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>801500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>935200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>831100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-146100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-98600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-61300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-354100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-436100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-298900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-280300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-406700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-637200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-420300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-448000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-325800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-366900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-308500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-870900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1424200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-856500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-326200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-235200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-714600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-910900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-546100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-783200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1737800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1073100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-718900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-522900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1447000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-893300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-608400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-478700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-774500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>270100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2221500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3189500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>48700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>321700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1832400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1197100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>965800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-93700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-484500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>212800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>928800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-70800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-522900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-422700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-352100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1274100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>882700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2239400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3582200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>103700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>226300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1603900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1159200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-449700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-593700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>428000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>205400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-146800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-334600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-99800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-192600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-356500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>AER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1017500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1019400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1187300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1179800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1208300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1153600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1203100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1183500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1178900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1146500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1143400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1129800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1214500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1210200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1194200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1189500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1309900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1203700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E9" s="3">
         <v>51200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>52200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>94700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>86900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>44100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>65200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>91700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>125900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>84800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>103300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>132500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>141200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>137800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>136300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>122400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>143300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>128700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>942200</v>
+      </c>
+      <c r="E10" s="3">
         <v>968200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1135100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1085100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1121400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1109500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1137900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1091800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1053000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1061700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1040100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>997300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1073300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1072400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1057900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1067100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1166600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1075000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E14" s="3">
         <v>1015800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>98800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>22500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>16100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>31200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>17800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>45600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>19700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>401800</v>
+      </c>
+      <c r="E15" s="3">
         <v>416000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>411800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>415800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>415900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>415300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>419100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>425800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>425900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>412700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>417700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>422700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>425400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>428300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>435000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>438500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>433500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>439900</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>659300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1543900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>615700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>597600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>590200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>555300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>566700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>589500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>637800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>573800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>620300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>643100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>673200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>695700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>666000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>654300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>693300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>693400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>358200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-524500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>571600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>582200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>618100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>598300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>636400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>594000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>541100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>572700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>523100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>486700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>541300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>514500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>528200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>535200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>616600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>510300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-121200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>21800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>45800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>107400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>37100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>68400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>25000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>55800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>105900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>51900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>61700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>60500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>40800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>77200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>745000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-229700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1005200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1043800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1141400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1050800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1123800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1025500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>989500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1013000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1001000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1018000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1021400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1007200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1027600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1018800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1132000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>975700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>310500</v>
+      </c>
+      <c r="E22" s="3">
         <v>307300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>309700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>306100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>374900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>308900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>322600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>318300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>301800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>297000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>289400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>291000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>274900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>278200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>266000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>279200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>271300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>272400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-953000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>283700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>321900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>350600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>326500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>382100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>281400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>259200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>289500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>301600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>318300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>298000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>322700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>296800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>422600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-106100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>38300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>43500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>39000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>42400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>49700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>42000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>38600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>60700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-846900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>245400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>278500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>311600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>284100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>332500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>244800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>231000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>261600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>251900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>262400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>290300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>263900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>280800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>258300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>361900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>216100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-849900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>246100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>276800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>309800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>270300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>331500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>234200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>232600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>263400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>254200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>265400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>288300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>265800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>282900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>261200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>364700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1855,11 +1915,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-22000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E32" s="3">
         <v>121200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-21800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-45800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-107400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-37100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-68400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-25000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-55800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-105900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-51900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-61700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-60500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-40800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-77200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-20800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-849900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>246100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>276800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>309800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>270300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>331500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>234200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>232600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>263400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>254200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>265400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>266300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>265800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>282900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>261200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>364700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-849900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>246100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>276800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>309800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>270300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>331500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>234200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>232600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>263400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>254200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>265400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>266300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>265800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>282900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>261200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>364700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="E41" s="3">
         <v>3244400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2382700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4693900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1121400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1036900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>782900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2348100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1204000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1176000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1598500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2152200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1659700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1454200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1601100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1935600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2035400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2228000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2515,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>343200</v>
+      </c>
+      <c r="E43" s="3">
         <v>428900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>419800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>279200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>403400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>330400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>276000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>241200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>260700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>335500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>266700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>286000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>425800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>301900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>259600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>218100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>253700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2493,109 +2588,115 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>3200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>57200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>20300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>31000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>55000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>37100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>37000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>39000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>42300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>46900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>59400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>52700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2237200</v>
+      </c>
+      <c r="E45" s="3">
         <v>2800500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3465400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3212200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3052900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3012300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3038300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3069700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3104300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3400300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3241800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3468900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3037000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3430300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3521600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3324300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3377200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3392600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,176 +2751,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1545700</v>
+      </c>
+      <c r="E47" s="3">
         <v>1631300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1728600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1276600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1222600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1247600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1187800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1181300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1194400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1194800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1214800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1193300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1141100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1120600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>974200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>916700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>898000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>985800</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35219600</v>
+      </c>
+      <c r="E48" s="3">
         <v>34799600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35422400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35738700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35940500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>35303800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35329900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35159700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35081500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33215800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32977000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32187700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32427900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31610400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>30993100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31595700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31538400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>30913200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>874500</v>
+      </c>
+      <c r="E49" s="3">
         <v>912900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1031500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1076100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1117000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1230000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1276200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1381400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1441800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1528600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1617300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1734900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1857400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2036700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2205600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2415900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2565000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2832800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>378100</v>
+      </c>
+      <c r="E52" s="3">
         <v>390400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>513200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>626300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>610600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1113800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>846300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1002600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>533400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>827300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>656000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1076900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1146500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>747400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1176500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>735900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>652000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>930500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42048000</v>
+      </c>
+      <c r="E54" s="3">
         <v>44421100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45193800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>47144800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43749200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43549000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43067900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>44717000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43208900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42149500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42019400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42493700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42040100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41006700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41019500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41442900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41620500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41797800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>222200</v>
+      </c>
+      <c r="E57" s="3">
         <v>223100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>220100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>240400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>239100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>233400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>245800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>272000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>294300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>274900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>283900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>303900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>307400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>288100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>295500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>302400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>330400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>276700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3212,20 +3345,20 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>11700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9000</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -3236,8 +3369,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3254,64 +3387,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2670700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2697700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2876000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3186500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3244500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3336800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3326300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3413000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3268700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3363100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3314500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3492500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3544100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3690200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3806900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3878800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3896900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4100200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,120 +3505,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28742100</v>
+      </c>
+      <c r="E61" s="3">
         <v>31087100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>30683900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>32760800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>29474500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29280000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>29014200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>30750100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29507600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28387500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28545500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28890300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28420700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>27287600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>27181000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>27520500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>27717000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>27997900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>913400</v>
+      </c>
+      <c r="E62" s="3">
         <v>884100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>990300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>950200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>910300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>935800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>892200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>842100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>804600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>789900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>750500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>712400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>673900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>685900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>655900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>615300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>579000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>474100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33183600</v>
+      </c>
+      <c r="E66" s="3">
         <v>35609700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>35559800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37761900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34434300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34374100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34054900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>35810800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34380900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33279700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33349900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33901100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33460400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32460300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32498700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>32923200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33096000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>33428300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7399700</v>
+      </c>
+      <c r="E72" s="3">
         <v>7380700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8232500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7986100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7734600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7424100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7157200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6825300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6591700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6359700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6096000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5846500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5580300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5313100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5047300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4767400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4509000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4147000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8864500</v>
+      </c>
+      <c r="E76" s="3">
         <v>8811400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9634000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9382900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9314900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9174900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9013000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8906200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8828000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8869900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8669500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8592600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8579700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8546500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8520800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8519700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8524400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8369500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-849900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>246100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>276800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>309800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>270300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>331500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>234200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>232600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>263400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>254200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>265400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>266300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>265800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>282900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>261200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>364700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>401800</v>
+      </c>
+      <c r="E83" s="3">
         <v>416000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>411800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>415800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>415900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>415300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>419100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>425800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>428500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>415300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>422100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>425500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>428200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>431000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>438900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>442800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>438200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>444600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>652500</v>
+      </c>
+      <c r="E89" s="3">
         <v>541000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>307900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>628900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>768300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>817100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>774500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>745700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>778400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>716700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>607300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>738000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>724300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>817200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>797200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>801500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>935200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>831100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-99100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-146100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-98600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-61300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-354100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-436100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-298900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-280300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-406700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-637200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-420300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-448000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-325800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-366900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-308500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-870900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1424200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-856500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-220800</v>
+      </c>
+      <c r="E94" s="3">
         <v>70000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-326200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-235200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-714600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-910900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-546100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-783200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1737800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1073100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-718900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-522900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1447000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-893300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-608400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-478700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-774500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2463400</v>
+      </c>
+      <c r="E100" s="3">
         <v>270100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2221500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3189500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>48700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>321700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1832400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1197100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>965800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-93700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-484500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>212800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>928800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-70800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-522900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-422700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-352100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1274100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1500</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2030500</v>
+      </c>
+      <c r="E102" s="3">
         <v>882700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2239400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3582200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>103700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>226300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1603900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1159200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-449700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-593700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>428000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>205400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-146800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-334600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-99800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-192600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-356500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>AER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1090600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1017500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1019400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1187300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1179800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1208300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1153600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1203100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1183500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1178900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1146500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1143400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1129800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1214500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1210200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1194200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1189500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1309900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1203700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E9" s="3">
         <v>75300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>51200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>52200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>94700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>86900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>44100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>65200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>91700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>125900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>84800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>103300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>132500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>141200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>137800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>136300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>122400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>143300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>128700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1051400</v>
+      </c>
+      <c r="E10" s="3">
         <v>942200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>968200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1135100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1085100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1121400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1109500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1137900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1091800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1053000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1061700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1040100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>997300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1073300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1072400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1057900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1067100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1166600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1075000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E14" s="3">
         <v>118500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1015800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>98800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>22500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>16100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>31200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>17800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>45600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>19700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>396600</v>
+      </c>
+      <c r="E15" s="3">
         <v>401800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>416000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>411800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>415800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>415900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>415300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>419100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>425800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>425900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>412700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>417700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>422700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>425400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>428300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>435000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>438500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>433500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>439900</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>546300</v>
+      </c>
+      <c r="E17" s="3">
         <v>659300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1543900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>615700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>597600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>590200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>555300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>566700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>589500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>637800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>573800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>620300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>643100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>673200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>695700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>666000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>654300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>693300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>693400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>544300</v>
+      </c>
+      <c r="E18" s="3">
         <v>358200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-524500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>571600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>582200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>618100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>598300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>636400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>594000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>541100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>572700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>523100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>486700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>541300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>514500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>528200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>535200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>616600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>510300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-15000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-121200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>21800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>45800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>107400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>37100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>68400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>25000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>55800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>105900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>51900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>61700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>60500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>40800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>77200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>943100</v>
+      </c>
+      <c r="E21" s="3">
         <v>745000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-229700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1005200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1043800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1141400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1050800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1123800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1025500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>989500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1013000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1001000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1018000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1021400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1007200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1027600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1018800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1132000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>975700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>280800</v>
+      </c>
+      <c r="E22" s="3">
         <v>310500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>307300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>309700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>306100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>374900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>308900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>322600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>318300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>301800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>297000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>289400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>291000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>274900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>278200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>266000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>279200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>271300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>272400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>265800</v>
+      </c>
+      <c r="E23" s="3">
         <v>32700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-953000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>283700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>321900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>350600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>326500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>382100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>281400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>259200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>289500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>301600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>318300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>298000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>322700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>296800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>422600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E24" s="3">
         <v>7100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-106100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>38300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>43500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>39000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>42400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>49700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>37600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>39200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>34200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>42000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>38600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>60700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>225900</v>
+      </c>
+      <c r="E26" s="3">
         <v>25600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-846900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>245400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>278500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>311600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>284100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>332500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>244800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>231000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>261600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>251900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>262400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>290300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>263900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>280800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>258300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>361900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>216100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E27" s="3">
         <v>28500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-849900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>246100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>276800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>309800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>270300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>331500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>234200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>232600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>263400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>254200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>265400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>288300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>265800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>282900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>261200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>364700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,31 +1935,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1918,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-22000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>15000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>121200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-21800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-45800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-107400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-37100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-68400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-25000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-55800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-105900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-51900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-61700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-60500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-40800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-77200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-20800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E33" s="3">
         <v>28500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-849900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>246100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>276800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>309800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>270300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>331500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>234200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>232600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>263400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>254200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>265400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>266300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>265800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>282900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>261200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>364700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E35" s="3">
         <v>28500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-849900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>246100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>276800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>309800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>270300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>331500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>234200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>232600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>263400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>254200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>265400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>266300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>265800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>282900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>261200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>364700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1447500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1248800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3244400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2382700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4693900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1121400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1036900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>782900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2348100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1204000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1176000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1598500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2152200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1659700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1454200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1601100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1935600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2035400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2228000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>349000</v>
+      </c>
+      <c r="E43" s="3">
         <v>343200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>428900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>419800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>279200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>403400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>330400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>276000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>241200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>260700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>335500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>266700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>286000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>425800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>301900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>259600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>218100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>253700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2591,112 +2687,118 @@
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>3200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>57200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>20300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>31000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>55000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>37100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>37000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>39000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>42300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>46900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>59400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>52700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2421700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2237200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2800500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3465400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3212200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3052900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3012300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3038300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3069700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3104300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3400300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3241800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3468900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3037000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3430300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3521600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3324300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3377200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3392600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,185 +2856,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1578100</v>
+      </c>
+      <c r="E47" s="3">
         <v>1545700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1631300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1728600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1276600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1222600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1247600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1187800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1181300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1194400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1194800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1214800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1193300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1141100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1120600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>974200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>916700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>898000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>985800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34626000</v>
+      </c>
+      <c r="E48" s="3">
         <v>35219600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34799600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35422400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35738700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>35940500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35303800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35329900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35159700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35081500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>33215800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32977000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32187700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32427900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31610400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>30993100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31595700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31538400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>30913200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>850000</v>
+      </c>
+      <c r="E49" s="3">
         <v>874500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>912900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1031500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1076100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1117000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1230000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1276200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1381400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1441800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1528600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1617300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1734900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1857400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2036700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2205600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2415900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2565000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2832800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>399900</v>
+      </c>
+      <c r="E52" s="3">
         <v>378100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>390400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>513200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>626300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>610600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1113800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>846300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1002600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>533400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>827300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>656000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1076900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1146500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>747400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1176500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>735900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>652000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>930500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42065000</v>
+      </c>
+      <c r="E54" s="3">
         <v>42048000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44421100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45193800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>47144800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43749200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43549000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43067900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44717000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43208900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42149500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42019400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42493700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42040100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41006700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41019500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41442900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41620500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41797800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>243700</v>
+      </c>
+      <c r="E57" s="3">
         <v>222200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>223100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>220100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>240400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>239100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>233400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>245800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>272000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>294300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>274900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>283900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>303900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>307400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>288100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>295500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>302400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>330400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>276700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3348,20 +3482,20 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>11700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9000</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3372,8 +3506,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3390,67 +3524,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2650700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2670700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2697700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2876000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3186500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3244500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3336800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3326300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3413000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3268700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3363100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3314500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3492500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3544100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3690200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3806900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3878800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3896900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4100200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,126 +3648,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28553100</v>
+      </c>
+      <c r="E61" s="3">
         <v>28742100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31087100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>30683900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>32760800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29474500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>29280000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29014200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30750100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29507600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28387500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28545500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28890300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28420700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>27287600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>27181000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>27520500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>27717000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>27997900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>954000</v>
+      </c>
+      <c r="E62" s="3">
         <v>913400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>884100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>990300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>950200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>910300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>935800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>892200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>842100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>804600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>789900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>750500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>712400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>673900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>685900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>655900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>615300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>579000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>474100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32925600</v>
+      </c>
+      <c r="E66" s="3">
         <v>33183600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>35609700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35559800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37761900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34434300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34374100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34054900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35810800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34380900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33279700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33349900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33901100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33460400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32460300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>32498700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>32923200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>33096000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>33428300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7625700</v>
+      </c>
+      <c r="E72" s="3">
         <v>7399700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7380700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8232500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7986100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7734600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7424100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7157200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6825300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6591700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6359700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6096000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5846500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5580300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5313100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5047300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4767400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4509000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4147000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9139300</v>
+      </c>
+      <c r="E76" s="3">
         <v>8864500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8811400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9634000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9382900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9314900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9174900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9013000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8906200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8828000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8869900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8669500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8592600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8579700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8546500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8520800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8519700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8524400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8369500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E81" s="3">
         <v>28500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-849900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>246100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>276800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>309800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>270300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>331500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>234200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>232600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>263400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>254200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>265400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>266300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>265800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>282900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>261200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>364700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>396600</v>
+      </c>
+      <c r="E83" s="3">
         <v>401800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>416000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>411800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>415800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>415900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>415300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>419100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>425800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>428500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>415300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>422100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>425500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>428200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>431000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>438900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>442800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>438200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>444600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400400</v>
+      </c>
+      <c r="E89" s="3">
         <v>652500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>541000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>307900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>628900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>768300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>817100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>774500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>745700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>778400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>716700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>607300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>738000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>724300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>817200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>797200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>801500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>935200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>831100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-99100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-146100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-98600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-61300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-354100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-436100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-298900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-280300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-406700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-637200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-420300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-448000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-325800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-366900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-308500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-870900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1424200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-856500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-220800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>70000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-326200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-235200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-714600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-910900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-546100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-783200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1737800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1073100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-718900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-522900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1447000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-893300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-608400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-478700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-774500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-288700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2463400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>270100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2221500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3189500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>48700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>321700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1832400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1197100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>965800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-93700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-484500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>212800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>928800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-70800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-522900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-422700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-352100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1274100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>180200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2030500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>882700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2239400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3582200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>103700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>226300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1603900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1159200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-449700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-593700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>428000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>205400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-146800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-334600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-99800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-192600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-356500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>AER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1209600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1090600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1017500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1019400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1187300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1179800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1208300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1153600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1203100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1183500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1178900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1146500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1143400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1129800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1214500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1210200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1194200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1189500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1309900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1203700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E9" s="3">
         <v>39200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>75300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>51200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>52200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>94700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>86900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>44100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>65200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>91700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>125900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>84800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>103300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>132500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>141200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>137800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>136300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>122400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>143300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>128700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1150600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1051400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>942200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>968200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1135100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1085100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1121400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1109500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1137900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1091800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1053000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1061700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1040100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>997300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1073300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1072400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1057900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1067100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1166600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1075000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E14" s="3">
         <v>53200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>118500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1015800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>98800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>16100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>31200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>45600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>19700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>392200</v>
+      </c>
+      <c r="E15" s="3">
         <v>396600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>401800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>416000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>411800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>415800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>415900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>415300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>419100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>425800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>425900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>412700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>417700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>422700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>425400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>428300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>435000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>438500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>433500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>439900</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>650500</v>
+      </c>
+      <c r="E17" s="3">
         <v>546300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>659300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1543900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>615700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>597600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>590200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>555300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>566700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>589500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>637800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>573800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>620300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>643100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>673200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>695700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>666000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>654300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>693300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>693400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>559100</v>
+      </c>
+      <c r="E18" s="3">
         <v>544300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>358200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-524500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>571600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>582200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>618100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>598300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>636400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>594000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>541100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>572700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>523100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>486700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>541300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>514500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>528200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>535200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>616600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>510300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-15000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-121200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>21800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>45800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>107400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>37100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>68400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>25000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>55800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>105900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>51900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>61700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>60500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>40800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>77200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>973700</v>
+      </c>
+      <c r="E21" s="3">
         <v>943100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>745000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-229700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1005200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1043800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1141400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1050800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1123800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1025500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>989500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1013000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1001000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1018000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1021400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1007200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1027600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1018800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1132000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>975700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>292900</v>
+      </c>
+      <c r="E22" s="3">
         <v>280800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>310500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>307300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>309700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>306100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>374900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>308900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>322600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>318300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>301800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>297000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>289400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>291000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>274900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>278200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>266000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>279200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>271300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>272400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>288700</v>
+      </c>
+      <c r="E23" s="3">
         <v>265800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>32700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-953000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>283700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>321900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>350600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>326500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>382100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>281400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>259200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>289500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>301600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>318300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>298000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>322700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>296800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>422600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E24" s="3">
         <v>39900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-106100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>38300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>43500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>39000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>42400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>49700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>39200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>42000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>38600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>60700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>248200</v>
+      </c>
+      <c r="E26" s="3">
         <v>225900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-846900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>245400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>278500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>311600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>284100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>332500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>244800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>231000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>261600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>251900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>262400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>290300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>263900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>280800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>258300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>361900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>216100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>249800</v>
+      </c>
+      <c r="E27" s="3">
         <v>228000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>28500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-849900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>246100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>276800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>309800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>270300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>331500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>234200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>232600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>263400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>254200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>265400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>288300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>265800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>282900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>261200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>364700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1982,11 +2043,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-22000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>15000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>121200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-21800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-45800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-107400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-37100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-68400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-25000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-55800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-105900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-51900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-61700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-60500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-40800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-77200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-20800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>249800</v>
+      </c>
+      <c r="E33" s="3">
         <v>228000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>28500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-849900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>246100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>276800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>309800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>270300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>331500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>234200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>232600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>263400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>254200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>265400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>266300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>265800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>282900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>261200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>364700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>249800</v>
+      </c>
+      <c r="E35" s="3">
         <v>228000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>28500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-849900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>246100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>276800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>309800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>270300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>331500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>234200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>232600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>263400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>254200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>265400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>266300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>265800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>282900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>261200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>364700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1402900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1447500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1248800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3244400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2382700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4693900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1121400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1036900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>782900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2348100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1204000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1176000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1598500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2152200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1659700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1454200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1601100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1935600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2035400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2228000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>525400</v>
+      </c>
+      <c r="E43" s="3">
         <v>349000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>343200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>428900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>419800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>279200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>403400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>330400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>276000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>241200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>260700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>335500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>266700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>286000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>425800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>301900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>259600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>218100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>253700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2690,115 +2786,121 @@
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>3200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>57200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>20300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>31000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>55000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>37100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>37000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>39000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>42300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>46900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>59400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>52700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2078600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2421700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2237200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3465400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3212200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3052900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3012300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3038300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3069700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3104300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3400300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3241800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3468900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3037000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3430300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3521600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3324300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3377200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3392600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,194 +2961,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1506000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1578100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1545700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1631300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1728600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1276600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1222600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1247600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1187800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1181300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1194400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1194800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1214800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1193300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1141100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1120600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>974200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>916700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>898000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>985800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34797100</v>
+      </c>
+      <c r="E48" s="3">
         <v>34626000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35219600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>34799600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35422400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>35738700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35940500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35303800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35329900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35159700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35081500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>33215800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32977000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32187700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32427900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31610400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>30993100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31595700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31538400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>30913200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>828200</v>
+      </c>
+      <c r="E49" s="3">
         <v>850000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>874500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>912900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1031500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1076100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1117000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1230000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1276200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1381400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1441800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1528600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1617300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1734900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1857400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2036700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2205600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2415900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2565000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2832800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E52" s="3">
         <v>399900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>378100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>390400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>513200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>626300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>610600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1113800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>846300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1002600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>533400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>827300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>656000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1076900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1146500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>747400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1176500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>735900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>652000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>930500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41824100</v>
+      </c>
+      <c r="E54" s="3">
         <v>42065000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42048000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44421100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>45193800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>47144800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43749200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43549000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43067900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44717000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43208900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42149500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42019400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42493700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>42040100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41006700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41019500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41442900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41620500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>41797800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>281300</v>
+      </c>
+      <c r="E57" s="3">
         <v>243700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>222200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>223100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>220100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>240400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>239100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>233400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>245800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>272000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>294300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>274900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>283900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>303900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>307400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>288100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>295500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>302400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>330400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>276700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3485,20 +3619,20 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>11700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9000</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3509,8 +3643,8 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3527,70 +3661,76 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2566800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2650700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2670700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2697700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2876000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3186500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3244500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3336800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3326300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3413000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3268700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3363100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3314500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3492500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3544100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3690200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3806900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3878800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3896900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4100200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,132 +3791,141 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28098600</v>
+      </c>
+      <c r="E61" s="3">
         <v>28553100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28742100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31087100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>30683900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>32760800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>29474500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29280000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29014200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30750100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29507600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28387500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28545500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28890300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28420700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>27287600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>27181000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>27520500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>27717000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>27997900</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>996000</v>
+      </c>
+      <c r="E62" s="3">
         <v>954000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>913400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>884100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>990300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>950200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>910300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>935800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>892200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>842100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>804600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>789900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>750500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>712400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>673900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>685900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>655900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>615300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>579000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>474100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32440600</v>
+      </c>
+      <c r="E66" s="3">
         <v>32925600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33183600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35609700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>35559800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37761900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34434300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34374100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34054900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35810800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34380900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33279700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33349900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33901100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33460400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>32460300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>32498700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>32923200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>33096000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33428300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7888700</v>
+      </c>
+      <c r="E72" s="3">
         <v>7625700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7399700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7380700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8232500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7986100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7734600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7424100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7157200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6825300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6591700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6359700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6096000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5846500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5580300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5313100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5047300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4767400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4509000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4147000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9383500</v>
+      </c>
+      <c r="E76" s="3">
         <v>9139300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8864500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8811400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9634000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9382900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9314900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9174900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9013000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8906200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8828000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8869900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8669500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8592600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8579700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8546500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8520800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8519700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8524400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8369500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>249800</v>
+      </c>
+      <c r="E81" s="3">
         <v>228000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>28500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-849900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>246100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>276800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>309800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>270300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>331500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>234200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>232600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>263400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>254200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>265400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>266300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>265800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>282900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>261200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>364700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>392200</v>
+      </c>
+      <c r="E83" s="3">
         <v>396600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>401800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>416000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>411800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>415800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>415900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>415300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>419100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>425800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>428500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>415300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>422100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>425500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>428200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>431000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>438900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>442800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>438200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>444600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>771200</v>
+      </c>
+      <c r="E89" s="3">
         <v>400400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>652500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>541000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>307900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>628900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>768300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>817100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>774500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>745700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>778400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>716700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>607300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>738000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>724300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>817200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>797200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>801500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>935200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>831100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-99100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-146100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-98600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-61300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-354100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-436100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-298900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-280300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-406700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-637200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-420300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-448000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-325800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-366900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-308500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-870900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1424200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-856500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-302600</v>
+      </c>
+      <c r="E94" s="3">
         <v>69300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-220800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>70000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-326200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-235200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-714600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-910900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-546100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-783200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1737800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1073100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-718900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-522900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1447000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-893300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-608400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-478700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-774500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-550600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-288700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2463400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>270100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2221500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3189500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>48700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>321700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1832400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1197100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>965800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-93700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-484500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>212800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>928800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-70800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-522900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-422700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-352100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1274100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="E102" s="3">
         <v>180200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2030500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>882700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2239400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3582200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>103700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>226300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1603900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1159200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-449700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-593700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>428000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>205400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-146800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-334600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-99800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-192600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-356500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>AER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1416800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1209600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1090600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1017500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1019400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1187300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1179800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1208300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1153600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1203100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1183500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1178900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1146500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1143400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1129800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1214500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1210200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1194200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1189500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1309900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1203700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E9" s="3">
         <v>59000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>39200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>75300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>51200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>52200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>94700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>86900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>65200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>91700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>125900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>84800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>103300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>132500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>141200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>137800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>136300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>122400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>143300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>128700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1363300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1150600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1051400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>942200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>968200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1135100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1085100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1121400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1109500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1137900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1091800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1053000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1061700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1040100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>997300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1073300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1072400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1057900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1067100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1166600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1075000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E14" s="3">
         <v>126300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>53200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>118500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1015800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>98800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>22500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>16100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>31200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>45600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>10000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>19700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>393400</v>
+      </c>
+      <c r="E15" s="3">
         <v>392200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>396600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>401800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>416000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>411800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>415800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>415900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>415300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>419100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>425800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>425900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>412700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>417700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>422700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>425400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>428300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>435000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>438500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>433500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>439900</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>668000</v>
+      </c>
+      <c r="E17" s="3">
         <v>650500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>546300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>659300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1543900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>615700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>597600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>590200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>555300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>566700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>589500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>637800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>573800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>620300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>643100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>673200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>695700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>666000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>654300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>693300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>693400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>748800</v>
+      </c>
+      <c r="E18" s="3">
         <v>559100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>544300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>358200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-524500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>571600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>582200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>618100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>598300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>636400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>594000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>541100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>572700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>523100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>486700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>541300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>514500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>528200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>535200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>616600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>510300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E20" s="3">
         <v>22500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-15000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-121200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>21800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>45800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>107400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>37100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>68400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>25000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>55800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>105900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>51900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>61700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>60500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>40800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>77200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1181900</v>
+      </c>
+      <c r="E21" s="3">
         <v>973700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>943100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>745000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-229700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1005200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1043800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1141400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1050800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1123800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1025500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>989500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1013000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1001000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1018000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1021400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1007200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1027600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1018800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1132000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>975700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>287200</v>
+      </c>
+      <c r="E22" s="3">
         <v>292900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>280800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>310500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>307300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>309700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>306100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>374900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>308900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>322600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>318300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>301800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>297000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>289400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>291000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>274900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>278200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>266000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>279200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>271300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>272400</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>501300</v>
+      </c>
+      <c r="E23" s="3">
         <v>288700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>265800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>32700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-953000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>283700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>321900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>350600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>326500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>382100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>281400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>259200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>289500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>301600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>318300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>298000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>322700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>296800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>422600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E24" s="3">
         <v>40500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>39900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-106100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>38300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>43500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>39000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>42400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>49700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>28100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>39100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>39200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>34200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>42000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>38600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>60700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>439200</v>
+      </c>
+      <c r="E26" s="3">
         <v>248200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>225900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>25600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-846900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>245400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>278500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>311600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>284100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>332500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>244800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>231000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>261600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>251900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>262400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>290300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>263900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>280800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>258300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>361900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>216100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>433900</v>
+      </c>
+      <c r="E27" s="3">
         <v>249800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>228000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>28500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-849900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>246100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>276800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>309800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>270300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>331500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>234200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>232600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>263400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>254200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>265400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>288300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>265800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>282900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>261200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>364700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,8 +2089,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2046,11 +2107,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-22000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-22500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>15000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>121200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-21800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-45800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-107400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-37100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-68400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-25000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-55800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-105900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-51900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-61700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-60500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-40800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-77200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-20800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>433900</v>
+      </c>
+      <c r="E33" s="3">
         <v>249800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>228000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>28500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-849900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>246100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>276800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>309800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>270300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>331500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>234200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>232600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>263400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>254200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>265400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>266300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>265800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>282900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>261200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>364700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>433900</v>
+      </c>
+      <c r="E35" s="3">
         <v>249800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>228000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>28500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-849900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>246100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>276800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>309800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>270300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>331500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>234200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>232600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>263400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>254200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>265400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>266300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>265800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>282900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>261200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>364700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1311200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1402900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1447500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1248800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3244400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2382700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4693900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1121400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1036900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>782900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2348100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1204000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1176000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1598500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2152200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1659700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1454200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1601100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1935600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2035400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2228000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>647200</v>
+      </c>
+      <c r="E43" s="3">
         <v>525400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>349000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>343200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>428900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>419800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>279200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>403400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>330400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>276000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>241200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>260700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>335500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>266700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>286000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>425800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>301900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>259600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>218100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>253700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2789,118 +2885,124 @@
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>3200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>57200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>31000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>55000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>37100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>37000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>39000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>42300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>46900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>59400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>52700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2070100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2078600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2421700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2237200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2800500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3465400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3212200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3052900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3012300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3038300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3069700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3104300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3400300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3241800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3468900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3037000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3430300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3521600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3324300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3377200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3392600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,203 +3066,215 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1443300</v>
+      </c>
+      <c r="E47" s="3">
         <v>1506000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1578100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1545700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1631300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1728600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1276600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1222600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1247600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1187800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1181300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1194400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1194800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1214800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1193300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1141100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1120600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>974200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>916700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>898000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>985800</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34465600</v>
+      </c>
+      <c r="E48" s="3">
         <v>34797100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34626000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35219600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>34799600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>35422400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35738700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35940500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35303800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35329900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35159700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35081500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>33215800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32977000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32187700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32427900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31610400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>30993100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31595700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>31538400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>30913200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>802300</v>
+      </c>
+      <c r="E49" s="3">
         <v>828200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>850000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>874500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>912900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1031500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1076100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1117000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1230000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1276200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1381400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1441800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1528600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1617300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1734900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1857400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2036700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2205600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2415900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2565000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2832800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>537500</v>
+      </c>
+      <c r="E52" s="3">
         <v>368000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>399900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>378100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>390400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>513200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>626300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>610600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1113800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>846300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1002600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>533400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>827300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>656000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1076900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1146500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>747400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1176500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>735900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>652000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>930500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41499300</v>
+      </c>
+      <c r="E54" s="3">
         <v>41824100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42065000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>42048000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44421100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>45193800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>47144800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43749200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43549000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43067900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44717000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43208900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42149500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42019400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>42493700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>42040100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41006700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41019500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41442900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>41620500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>41797800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>263600</v>
+      </c>
+      <c r="E57" s="3">
         <v>281300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>243700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>222200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>223100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>220100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>240400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>239100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>233400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>245800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>272000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>294300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>274900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>283900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>303900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>307400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>288100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>295500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>302400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>330400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>276700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3622,20 +3756,20 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>11700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9000</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -3646,8 +3780,8 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3664,73 +3798,79 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2329700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2566800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2650700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2670700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2697700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2876000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3186500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3244500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3336800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3326300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3413000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3268700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3363100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3314500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3492500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3544100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3690200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3806900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3878800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3896900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4100200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,138 +3934,147 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>27539700</v>
+      </c>
+      <c r="E61" s="3">
         <v>28098600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28553100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>28742100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31087100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30683900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>32760800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29474500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29280000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29014200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30750100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29507600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28387500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28545500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28890300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28420700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>27287600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>27181000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>27520500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>27717000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>27997900</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1054900</v>
+      </c>
+      <c r="E62" s="3">
         <v>996000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>954000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>913400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>884100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>990300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>950200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>910300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>935800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>892200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>842100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>804600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>789900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>750500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>712400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>673900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>685900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>655900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>615300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>579000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>474100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31644400</v>
+      </c>
+      <c r="E66" s="3">
         <v>32440600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32925600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>33183600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>35609700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>35559800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37761900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34434300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34374100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34054900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>35810800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34380900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33279700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33349900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33901100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33460400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>32460300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>32498700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>32923200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33096000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33428300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8322600</v>
+      </c>
+      <c r="E72" s="3">
         <v>7888700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7625700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7399700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7380700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8232500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7986100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7734600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7424100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7157200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6825300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6591700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6359700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6096000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5846500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5580300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5313100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5047300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4767400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4509000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4147000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9855000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9383500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9139300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8864500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8811400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9634000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9382900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9314900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9174900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9013000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8906200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8828000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8869900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8669500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8592600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8579700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8546500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8520800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8519700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8524400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8369500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>433900</v>
+      </c>
+      <c r="E81" s="3">
         <v>249800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>228000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>28500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-849900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>246100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>276800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>309800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>270300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>331500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>234200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>232600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>263400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>254200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>265400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>266300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>265800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>282900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>261200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>364700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>393400</v>
+      </c>
+      <c r="E83" s="3">
         <v>392200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>396600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>401800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>416000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>411800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>415800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>415900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>415300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>419100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>425800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>428500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>415300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>422100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>425500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>428200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>431000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>438900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>442800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>438200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>444600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>787800</v>
+      </c>
+      <c r="E89" s="3">
         <v>771200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>652500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>541000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>307900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>628900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>768300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>817100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>774500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>745700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>778400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>716700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>607300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>738000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>724300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>817200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>797200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>801500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>935200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>831100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-99100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-146100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-98600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-61300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-354100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-436100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-298900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-280300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-406700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-637200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-420300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-448000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-325800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-366900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-308500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-870900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1424200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-856500</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-187300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-302600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>69300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-220800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>70000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-326200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-235200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-714600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-910900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-546100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-783200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1737800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1073100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-718900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-522900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1447000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-893300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-608400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-478700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-774500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-660400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-550600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-288700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2463400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>270100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2221500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3189500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>48700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>321700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1832400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1197100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>965800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-93700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-484500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>212800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>928800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-70800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-522900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-422700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-352100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1274100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-1200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-82100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>180200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2030500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>882700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2239400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3582200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>103700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>226300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1603900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1159200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-449700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-593700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>428000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>205400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-146800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-334600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-99800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-192600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-356500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>AER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1417600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1416800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1209600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1090600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1017500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1019400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1187300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1179800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1208300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1153600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1203100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1183500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1178900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1146500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1143400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1129800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1214500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1210200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1194200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1189500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1309900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1203700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E9" s="3">
         <v>53500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>59000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>39200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>75300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>51200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>52200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>94700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>86900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>44100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>65200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>91700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>125900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>84800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>103300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>132500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>141200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>137800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>136300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>122400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>143300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>128700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1255600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1363300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1150600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1051400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>942200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>968200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1135100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1085100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1121400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1109500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1137900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1091800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1053000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1061700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1040100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>997300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1073300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1072400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1057900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1067100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1166600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1075000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1144,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E14" s="3">
         <v>153000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>126300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>53200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>118500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1015800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>98800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>22500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>16100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>31200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>45600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>10000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>19700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>555800</v>
+      </c>
+      <c r="E15" s="3">
         <v>393400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>392200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>396600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>401800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>416000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>411800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>415800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>415900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>415300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>419100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>425800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>425900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>412700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>417700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>422700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>425400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>428300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>435000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>438500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>433500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>439900</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>983100</v>
+      </c>
+      <c r="E17" s="3">
         <v>668000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>650500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>546300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>659300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1543900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>615700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>597600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>590200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>555300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>566700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>589500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>637800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>573800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>620300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>643100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>673200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>695700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>666000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>654300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>693300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>693400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>434500</v>
+      </c>
+      <c r="E18" s="3">
         <v>748800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>559100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>544300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>358200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-524500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>571600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>582200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>618100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>598300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>636400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>594000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>541100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>572700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>523100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>486700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>541300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>514500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>528200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>535200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>616600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>510300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1481,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E20" s="3">
         <v>39800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>22500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-15000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-121200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>21800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>45800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>107400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>37100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>68400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>19900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>25000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>55800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>105900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>51900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>61700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>60500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>40800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>77200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1017500</v>
+      </c>
+      <c r="E21" s="3">
         <v>1181900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>973700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>943100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>745000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-229700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1005200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1043800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1141400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1050800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1123800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1025500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>989500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1013000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1001000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1018000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1021400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1007200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1027600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1018800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1132000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>975700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>369500</v>
+      </c>
+      <c r="E22" s="3">
         <v>287200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>292900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>280800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>310500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>307300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>309700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>306100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>374900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>308900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>322600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>318300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>301800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>297000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>289400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>291000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>274900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>278200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>266000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>279200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>271300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>272400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E23" s="3">
         <v>501300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>288700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>265800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>32700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-953000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>283700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>321900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>350600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>326500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>382100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>281400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>259200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>289500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>301600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>318300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>298000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>322700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>296800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>422600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="3">
         <v>62100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>39900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-106100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>38300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>43500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>42400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>49700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>39100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>37600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>39200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>34200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>42000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>38600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>60700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E26" s="3">
         <v>439200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>248200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>225900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-846900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>245400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>278500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>311600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>284100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>332500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>244800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>231000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>261600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>251900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>262400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>290300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>263900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>280800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>258300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>361900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>216100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E27" s="3">
         <v>433900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>249800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>228000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>28500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-849900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>246100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>276800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>309800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>270300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>331500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>234200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>232600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>263400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>254200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>265400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>288300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>265800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>282900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>261200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>364700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,8 +2153,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2110,11 +2171,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-22000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-39800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-22500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>15000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>121200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-21800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-45800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-107400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-37100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-68400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-19900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-55800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-105900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-51900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-61700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-60500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-40800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-77200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-20800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E33" s="3">
         <v>433900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>249800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>228000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>28500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-849900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>246100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>276800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>309800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>270300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>331500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>234200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>232600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>263400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>254200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>265400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>266300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>265800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>282900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>261200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>364700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E35" s="3">
         <v>433900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>249800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>228000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>28500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-849900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>246100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>276800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>309800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>270300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>331500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>234200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>232600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>263400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>254200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>265400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>266300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>265800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>282900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>261200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>364700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1728800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1311200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1402900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1447500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1248800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3244400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2382700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4693900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1121400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1036900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>782900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2348100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1204000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1176000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1598500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2152200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1659700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1454200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1601100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1935600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2035400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2228000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,81 +2887,87 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>636500</v>
+      </c>
+      <c r="E43" s="3">
         <v>647200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>525400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>349000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>343200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>428900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>419800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>279200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>403400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>330400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>276000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>241200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>260700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>335500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>266700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>286000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>425800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>301900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>259600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>218100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>253700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>48600</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
@@ -2888,121 +2984,127 @@
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>3200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>57200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>20300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>31000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>55000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>37100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>37000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>39000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>42300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>46900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>59400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>52700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5039100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2070100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2078600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2421700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2237200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2800500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3465400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3212200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3052900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3012300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3038300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3069700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3104300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3400300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3241800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3468900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3037000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3430300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3521600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3324300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3377200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3392600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,212 +3171,224 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2994700</v>
+      </c>
+      <c r="E47" s="3">
         <v>1443300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1506000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1578100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1545700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1631300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1728600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1276600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1222600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1247600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1187800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1181300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1194400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1194800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1214800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1193300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1141100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1120600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>974200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>916700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>898000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>985800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>57946300</v>
+      </c>
+      <c r="E48" s="3">
         <v>34465600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34797100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>34626000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35219600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>34799600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35422400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35738700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35940500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35303800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35329900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35159700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>35081500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33215800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32977000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32187700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32427900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31610400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>30993100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>31595700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>31538400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>30913200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4653400</v>
+      </c>
+      <c r="E49" s="3">
         <v>802300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>828200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>850000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>874500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>912900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1031500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1076100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1117000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1230000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1276200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1381400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1441800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1528600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1617300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1734900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1857400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2036700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2205600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2415900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2565000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2832800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>611900</v>
+      </c>
+      <c r="E52" s="3">
         <v>537500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>368000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>399900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>378100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>390400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>513200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>626300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>610600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1113800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>846300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1002600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>533400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>827300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>656000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1076900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1146500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>747400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1176500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>735900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>652000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>930500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>74569800</v>
+      </c>
+      <c r="E54" s="3">
         <v>41499300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>41824100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>42065000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>42048000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44421100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>45193800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>47144800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43749200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43549000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43067900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44717000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43208900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42149500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>42019400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>42493700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>42040100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41006700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41019500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>41442900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>41620500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>41797800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,114 +3795,118 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>850200</v>
+      </c>
+      <c r="E57" s="3">
         <v>263600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>281300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>243700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>222200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>223100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>220100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>240400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>239100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>233400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>245800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>272000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>294300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>274900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>283900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>303900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>307400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>288100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>295500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>302400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>330400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>276700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9000</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3783,8 +3917,8 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3801,76 +3935,82 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2329700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2566800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2650700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2670700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2697700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2876000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3186500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3244500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3336800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3326300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3413000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3268700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3363100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3314500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3492500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3544100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3690200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3806900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3878800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3896900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4100200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,144 +4077,153 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>50204700</v>
+      </c>
+      <c r="E61" s="3">
         <v>27539700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28098600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>28553100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>28742100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>31087100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>30683900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>32760800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29474500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29280000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29014200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30750100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29507600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28387500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28545500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28890300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28420700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>27287600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>27181000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>27520500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>27717000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>27997900</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2085200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1054900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>996000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>954000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>913400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>884100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>990300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>950200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>910300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>935800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>892200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>842100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>804600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>789900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>750500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>712400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>673900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>685900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>655900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>615300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>579000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>474100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57999000</v>
+      </c>
+      <c r="E66" s="3">
         <v>31644400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32440600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>32925600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>33183600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>35609700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>35559800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37761900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34434300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34374100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34054900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>35810800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34380900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33279700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33349900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33901100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33460400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>32460300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>32498700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>32923200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33096000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>33428300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8410300</v>
+      </c>
+      <c r="E72" s="3">
         <v>8322600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7888700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7625700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7399700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7380700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8232500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7986100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7734600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7424100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7157200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6825300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6591700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6359700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6096000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5846500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5580300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5313100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5047300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4767400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4509000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4147000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16570700</v>
+      </c>
+      <c r="E76" s="3">
         <v>9855000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9383500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9139300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8864500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8811400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9634000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9382900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9314900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9174900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9013000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8906200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8828000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8869900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8669500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8592600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8579700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8546500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8520800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8519700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8524400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8369500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E81" s="3">
         <v>433900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>249800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>228000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>28500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-849900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>246100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>276800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>309800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>270300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>331500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>234200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>232600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>263400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>254200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>265400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>266300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>265800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>282900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>261200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>364700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>555800</v>
+      </c>
+      <c r="E83" s="3">
         <v>393400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>392200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>396600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>401800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>416000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>411800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>415800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>415900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>415300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>419100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>425800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>428500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>415300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>422100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>425500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>428200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>431000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>438900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>442800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>438200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>444600</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1734500</v>
+      </c>
+      <c r="E89" s="3">
         <v>787800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>771200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>652500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>541000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>307900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>628900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>768300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>817100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>774500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>745700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>778400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>716700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>607300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>738000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>724300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>817200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>797200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>801500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>935200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>831100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-45400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-99100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-146100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-98600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-61300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-354100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-436100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-298900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-280300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-406700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-637200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-420300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-448000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-325800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-366900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-308500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-870900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1424200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-856500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23038300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-187300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-302600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>69300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-220800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>70000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-326200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-235200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-714600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-910900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-546100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-783200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1737800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1073100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-718900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-522900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1447000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-893300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-608400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-478700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-774500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21683500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-660400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-550600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-288700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2463400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>270100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2221500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3189500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>48700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>321700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1832400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1197100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>965800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-93700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-484500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>212800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>928800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-70800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-522900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-422700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-352100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1274100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1500</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-1200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>380200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-58900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-82100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>180200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2030500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>882700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2239400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3582200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>103700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>226300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1603900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1159200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-449700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-593700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>428000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>205400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-146800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-334600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-99800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-192600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-356500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>AER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,347 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1635500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1786700</v>
+      </c>
+      <c r="F8" s="3">
         <v>1417600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1416800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1209600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1090600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1017500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1019400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1187300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1179800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1208300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1153600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1203100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1183500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1178900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1146500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1143400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1129800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1214500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1210200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1194200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1189500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1309900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1203700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>193200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>208100</v>
+      </c>
+      <c r="F9" s="3">
         <v>162000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>53500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>59000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>39200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>75300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>51200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>52200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>94700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>86900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>44100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>65200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>91700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>125900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>84800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>103300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>132500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>141200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>137800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>136300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>122400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>143300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>128700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1442300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1578600</v>
+      </c>
+      <c r="F10" s="3">
         <v>1255600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1363300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1150600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1051400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>942200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>968200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1135100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1085100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1121400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1109500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1137900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1091800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1053000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1061700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1040100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>997300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1073300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1072400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1057900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1067100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1166600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1075000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1031,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1104,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,150 +1181,168 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2749700</v>
+      </c>
+      <c r="F14" s="3">
         <v>146000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>153000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>126300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>53200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>118500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1015800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>98800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>22500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>16100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>31200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>17800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>5000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>15300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>12800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>14000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>2100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>10400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>45600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>10000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>9900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>19700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>580700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>634400</v>
+      </c>
+      <c r="F15" s="3">
         <v>555800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>393400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>392200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>396600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>401800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>416000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>411800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>415800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>415900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>415300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>419100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>425800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>425900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>412700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>417700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>422700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>425400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>428300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>435000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>438500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>433500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>439900</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1365,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3689600</v>
+      </c>
+      <c r="F17" s="3">
         <v>983100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>668000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>650500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>546300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>659300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1543900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>615700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>597600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>590200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>555300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>566700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>589500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>637800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>573800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>620300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>643100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>673200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>695700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>666000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>654300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>693300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>693400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>734700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1902900</v>
+      </c>
+      <c r="F18" s="3">
         <v>434500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>748800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>559100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>544300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>358200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-524500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>571600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>582200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>618100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>598300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>636400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>594000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>541100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>572700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>523100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>486700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>541300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>514500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>528200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>535200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>616600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>510300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,363 +1548,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F20" s="3">
         <v>27200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>39800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>22500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-15000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-121200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>21800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>45800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>107400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>37100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>68400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>19900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>25000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>55800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>105900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>51900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>61700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>60500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>40800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>77200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1338200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1265100</v>
+      </c>
+      <c r="F21" s="3">
         <v>1017500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1181900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>973700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>943100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>745000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-229700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1005200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1043800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1141400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1050800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1123800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1025500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>989500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1013000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1001000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1018000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1021400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1007200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1027600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1018800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1132000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>975700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>380800</v>
+      </c>
+      <c r="F22" s="3">
         <v>369500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>287200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>292900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>280800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>310500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>307300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>309700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>306100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>374900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>308900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>322600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>318300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>301800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>297000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>289400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>291000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>274900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>278200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>266000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>279200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>271300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>272400</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>357500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2280300</v>
+      </c>
+      <c r="F23" s="3">
         <v>92200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>501300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>288700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>265800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>32700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-953000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>283700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>321900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>350600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>326500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>382100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>281400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>259200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>300700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>289500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>301600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>318300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>298000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>322700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>296800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>422600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-278300</v>
+      </c>
+      <c r="F24" s="3">
         <v>20000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>62100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>40500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>39900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>7100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-106100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>38300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>43500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>39000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>42400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>49700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>36600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>28100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>39100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>37600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>39200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>28000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>34200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>42000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>38600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>60700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2006,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>307400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2002000</v>
+      </c>
+      <c r="F26" s="3">
         <v>72100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>439200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>248200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>225900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>25600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-846900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>245400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>278500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>311600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>284100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>332500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>244800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>231000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>261600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>251900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>262400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>290300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>263900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>280800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>258300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>361900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>216100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>339800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2000800</v>
+      </c>
+      <c r="F27" s="3">
         <v>88800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>433900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>249800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>228000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>28500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-849900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>246100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>276800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>309800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>270300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>331500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>234200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>232600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>263400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>254200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>265400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>288300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>265800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>282900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>261200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>364700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2237,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2156,11 +2278,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2174,14 +2296,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>-22000</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>-22000</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2192,8 +2314,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2391,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2468,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-27200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-39800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-22500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>15000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>121200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-21800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-45800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-107400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-37100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-68400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-25000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-55800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-105900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-51900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-61700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-60500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-40800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-77200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-20800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>339800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2000800</v>
+      </c>
+      <c r="F33" s="3">
         <v>88800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>433900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>249800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>228000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>28500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-849900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>246100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>276800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>309800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>270300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>331500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>234200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>232600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>263400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>254200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>265400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>266300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>265800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>282900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>261200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>364700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2699,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>339800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2000800</v>
+      </c>
+      <c r="F35" s="3">
         <v>88800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>433900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>249800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>228000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>28500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-849900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>246100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>276800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>309800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>270300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>331500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>234200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>232600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>263400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>254200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>265400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>266300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>265800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>282900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>261200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>364700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2891,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2920,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1229000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1185700</v>
+      </c>
+      <c r="F41" s="3">
         <v>1728800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1311200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1402900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1447500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1248800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3244400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2382700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4693900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1121400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1036900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>782900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2348100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1204000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1176000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1598500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2152200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1659700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1454200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1601100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1935600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2035400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2228000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,90 +3070,102 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>469400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>567100</v>
+      </c>
+      <c r="F43" s="3">
         <v>636500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>647200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>525400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>349000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>343200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>428900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>419800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>279200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>403400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>330400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>276000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>241200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>260700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>335500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>266700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>286000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>425800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>301900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>259600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>218100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>253700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>51900</v>
+      </c>
+      <c r="F44" s="3">
         <v>48600</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
@@ -2987,124 +3179,136 @@
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>3200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>6400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>57200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>20300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>31000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>55000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>37100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>37000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>39000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>42300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>46900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>59400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>52700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5234800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5056500</v>
+      </c>
+      <c r="F45" s="3">
         <v>5039100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2070100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2078600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2421700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2237200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2800500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3465400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3212200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3052900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3012300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3038300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3069700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3104300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>3400300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3241800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>3468900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>3037000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>3430300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>3521600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>3324300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>3377200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>3392600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,221 +3378,245 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3007700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3151100</v>
+      </c>
+      <c r="F47" s="3">
         <v>2994700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1443300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1506000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1578100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1545700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1631300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1728600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1276600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1222600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1247600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1187800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1181300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1194400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1194800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1214800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1193300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1141100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1120600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>974200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>916700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>898000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>985800</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>54433800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>54686500</v>
+      </c>
+      <c r="F48" s="3">
         <v>57946300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>34465600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>34797100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>34626000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>35219600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>34799600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>35422400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>35738700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>35940500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>35303800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>35329900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>35159700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>35081500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>33215800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>32977000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>32187700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>32427900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>31610400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>30993100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>31595700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>31538400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>30913200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3974100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4118300</v>
+      </c>
+      <c r="F49" s="3">
         <v>4653400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>802300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>828200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>850000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>874500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>912900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1031500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1076100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1117000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1230000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1276200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1381400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1441800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1528600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1617300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1734900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1857400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2036700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2205600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2415900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2565000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2832800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3686,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3763,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>347200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>439800</v>
+      </c>
+      <c r="F52" s="3">
         <v>611900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>537500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>368000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>399900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>378100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>390400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>513200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>626300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>610600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1113800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>846300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1002600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>533400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>827300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>656000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1076900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1146500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>747400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1176500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>735900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>652000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>930500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3917,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69747600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>70208200</v>
+      </c>
+      <c r="F54" s="3">
         <v>74569800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>41499300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>41824100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>42065000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>42048000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>44421100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>45193800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>47144800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>43749200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>43549000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>43067900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>44717000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>43208900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>42149500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>42019400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>42493700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>42040100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>41006700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>41019500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>41442900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>41620500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>41797800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4027,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +4056,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>730700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>750800</v>
+      </c>
+      <c r="F57" s="3">
         <v>850200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>263600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>281300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>243700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>222200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>223100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>220100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>240400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>239100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>233400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>245800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>272000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>294300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>274900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>283900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>303900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>307400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>288100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>295500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>302400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>330400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>276700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3893,26 +4161,26 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>11700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>9000</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -3920,11 +4188,11 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3938,79 +4206,91 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3578300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3512900</v>
+      </c>
+      <c r="F59" s="3">
         <v>4200400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2329700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2566800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2650700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2670700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2697700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2876000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3186500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3244500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3336800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3326300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3413000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3268700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3363100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3314500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3492500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3544100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3690200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3806900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>3878800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3896900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>4100200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,150 +4360,168 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>47927900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>48912900</v>
+      </c>
+      <c r="F61" s="3">
         <v>50204700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>27539700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>28098600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>28553100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>28742100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>31087100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>30683900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>32760800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>29474500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>29280000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>29014200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>30750100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>29507600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>28387500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>28545500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>28890300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>28420700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>27287600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>27181000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>27520500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>27717000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>27997900</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1859500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1807600</v>
+      </c>
+      <c r="F62" s="3">
         <v>2085200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1054900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>996000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>954000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>913400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>884100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>990300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>950200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>910300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>935800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>892200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>842100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>804600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>789900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>750500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>712400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>673900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>685900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>655900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>615300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>579000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>474100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4591,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4668,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4745,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54713200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>55555100</v>
+      </c>
+      <c r="F66" s="3">
         <v>57999000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>31644400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>32440600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>32925600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>33183600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>35609700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>35559800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>37761900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>34434300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>34374100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>34054900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>35810800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>34380900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>33279700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>33349900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>33901100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>33460400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>32460300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>32498700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>32923200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>33096000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>33428300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4855,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4928,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5005,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5082,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5159,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6741800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6408100</v>
+      </c>
+      <c r="F72" s="3">
         <v>8410300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>8322600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>7888700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>7625700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>7399700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>7380700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>8232500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>7986100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>7734600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>7424100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>7157200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6825300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>6591700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>6359700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>6096000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>5846500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>5580300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>5313100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>5047300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>4767400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>4509000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>4147000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5313,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5390,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5467,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15034400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14653100</v>
+      </c>
+      <c r="F76" s="3">
         <v>16570700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9855000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9383500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9139300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8864500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8811400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9634000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9382900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9314900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9174900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9013000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8906200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8828000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>8869900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>8669500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>8592600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>8579700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>8546500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>8520800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>8519700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>8524400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>8369500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5621,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>339800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2000800</v>
+      </c>
+      <c r="F81" s="3">
         <v>88800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>433900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>249800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>228000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>28500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-849900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>246100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>276800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>309800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>270300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>331500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>234200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>232600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>263400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>254200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>265400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>266300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>265800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>282900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>261200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>364700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5813,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>580700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>634400</v>
+      </c>
+      <c r="F83" s="3">
         <v>555800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>393400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>392200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>396600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>401800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>416000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>411800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>415800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>415900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>415300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>419100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>425800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>428500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>415300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>422100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>425500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>428200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>431000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>438900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>442800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>438200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>444600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5963,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6040,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6117,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6194,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6271,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1171900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1336600</v>
+      </c>
+      <c r="F89" s="3">
         <v>1734500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>787800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>771200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>400400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>652500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>541000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>307900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>628900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>768300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>817100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>774500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>745700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>778400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>716700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>607300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>738000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>724300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>817200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>797200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>801500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>935200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>831100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6381,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-237900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-177200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-10500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-45400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-19500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-11000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-99100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-146100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-98600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-61300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-354100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-436100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-298900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-280300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-406700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-637200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-420300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-448000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-325800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-366900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-308500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-870900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-1424200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-856500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6531,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6608,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-216100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-646600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-23038300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-187300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-302600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>69300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-220800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>70000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-326200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-235200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-714600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-910900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-546100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-783200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1737800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1073100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-718900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-522900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1447000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-893300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-608400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-478700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-774500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6718,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6791,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6868,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6945,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +7022,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-897800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1259100</v>
+      </c>
+      <c r="F100" s="3">
         <v>21683500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-660400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-550600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-288700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2463400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>270100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2221500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3189500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>48700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>321700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1832400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1197100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>965800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-93700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-484500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>212800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>928800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-70800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-522900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-422700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-352100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1274100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
+        <v>500</v>
+      </c>
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1500</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>2500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-400</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-568500</v>
+      </c>
+      <c r="F102" s="3">
         <v>380200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-58900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-82100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>180200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2030500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>882700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2239400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3582200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>103700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>226300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1603900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1159200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>6300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-449700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-593700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>428000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>205400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-146800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-334600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-99800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-192600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-356500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>AER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,360 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1654800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1635500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1786700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1417600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1416800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1209600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1090600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1017500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1019400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1187300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1179800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1208300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1153600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1203100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1183500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1178900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1146500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1143400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1129800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1214500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1210200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1194200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1189500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1309900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1203700</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>161400</v>
+      </c>
+      <c r="E9" s="3">
         <v>193200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>208100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>162000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>53500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>59000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>39200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>75300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>52200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>94700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>86900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>44100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>65200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>91700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>125900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>84800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>103300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>132500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>141200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>137800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>136300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>122400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>143300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>128700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1493400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1442300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1578600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1255600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1363300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1150600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1051400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>942200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>968200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1135100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1085100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1121400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1109500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1137900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1091800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1053000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1061700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1040100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>997300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1073300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1072400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1057900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1067100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1166600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1075000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,162 +1204,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E14" s="3">
         <v>21900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2749700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>146000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>153000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>126300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>53200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>118500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1015800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>98800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>16100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>31200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>17800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>14000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>10400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>45600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>10000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>9900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>19700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>580900</v>
+      </c>
+      <c r="E15" s="3">
         <v>580700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>634400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>555800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>393400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>392200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>396600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>401800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>416000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>411800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>415800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>415900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>415300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>419100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>425800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>425900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>412700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>417700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>422700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>425400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>428300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>435000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>438500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>433500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>439900</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>880400</v>
+      </c>
+      <c r="E17" s="3">
         <v>900800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3689600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>983100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>668000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>650500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>546300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>659300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1543900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>615700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>597600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>590200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>555300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>566700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>589500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>637800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>573800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>620300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>643100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>673200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>695700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>666000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>654300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>693300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>693400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>774400</v>
+      </c>
+      <c r="E18" s="3">
         <v>734700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1902900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>434500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>748800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>559100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>544300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>358200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-524500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>571600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>582200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>618100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>598300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>636400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>594000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>541100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>572700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>523100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>486700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>541300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>514500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>528200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>535200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>616600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>510300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,393 +1583,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E20" s="3">
         <v>22700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>27200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>39800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>22500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-15000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-121200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>45800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>107400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>37100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>68400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>25000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>55800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>105900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>51900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>61700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>60500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>40800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>77200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1432800</v>
+      </c>
+      <c r="E21" s="3">
         <v>1338200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1265100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1017500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1181900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>973700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>943100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>745000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-229700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1005200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1043800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1141400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1050800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1123800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1025500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>989500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1013000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1001000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1018000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1021400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1007200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1027600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1018800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1132000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>975700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>390800</v>
+      </c>
+      <c r="E22" s="3">
         <v>400000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>380800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>369500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>287200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>292900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>280800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>310500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>307300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>309700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>306100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>374900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>308900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>322600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>318300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>301800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>297000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>289400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>291000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>274900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>278200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>266000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>279200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>271300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>272400</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>461100</v>
+      </c>
+      <c r="E23" s="3">
         <v>357500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2280300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>92200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>501300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>288700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>265800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>32700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-953000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>283700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>321900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>350600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>326500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>382100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>281400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>259200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>289500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>301600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>318300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>298000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>322700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>296800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>422600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E24" s="3">
         <v>50000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-278300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>62100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>40500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>39900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-106100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>43500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>42400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>49700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>39100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>37600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>39200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>28000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>34200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>42000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>38600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>60700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>396800</v>
+      </c>
+      <c r="E26" s="3">
         <v>307400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2002000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>72100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>439200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>248200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>225900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>25600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-846900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>245400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>278500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>311600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>284100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>332500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>244800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>231000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>261600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>251900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>262400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>290300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>263900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>280800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>258300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>361900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>216100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E27" s="3">
         <v>339800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>88800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>433900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>249800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>228000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>28500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-849900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>246100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>276800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>309800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>270300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>331500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>234200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>232600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>263400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>254200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>265400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>288300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>265800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>282900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>261200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>364700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2284,8 +2345,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2302,11 +2363,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-22000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,162 +2541,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-77400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-22700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-27200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-39800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-22500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>15000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>121200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-45800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-107400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-37100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-68400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-19900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-25000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-55800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-105900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-51900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-61700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-60500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-40800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-77200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-20800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E33" s="3">
         <v>339800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>88800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>433900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>249800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>228000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>28500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-849900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>246100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>276800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>309800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>270300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>331500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>234200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>232600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>263400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>254200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>265400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>266300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>265800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>282900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>261200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>364700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E35" s="3">
         <v>339800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>88800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>433900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>249800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>228000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>28500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-849900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>246100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>276800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>309800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>270300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>331500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>234200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>232600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>263400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>254200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>265400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>266300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>265800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>282900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>261200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>364700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3008,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1098500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1229000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1185700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1728800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1311200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1402900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1447500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1248800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3244400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2382700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4693900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1121400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1036900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>782900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2348100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1204000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1176000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1598500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2152200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1659700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1454200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1601100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1935600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2035400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2228000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,99 +3166,105 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>487100</v>
+      </c>
+      <c r="E43" s="3">
         <v>469400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>567100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>636500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>647200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>525400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>349000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>343200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>428900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>419800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>279200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>403400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>330400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>276000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>241200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>260700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>335500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>266700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>286000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>425800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>301900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>259600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>218100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>253700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E44" s="3">
         <v>53400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>51900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>48600</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
@@ -3185,130 +3281,136 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>3200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>57200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>20300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>31000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>55000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>37100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>37000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>39000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>42300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>46900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>59400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>52700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5346400</v>
+      </c>
+      <c r="E45" s="3">
         <v>5234800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5056500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5039100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2070100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2078600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2421700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2237200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2800500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3465400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3212200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3052900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3012300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3038300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3069700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3104300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3400300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3241800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3468900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3037000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3430300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3521600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3324300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3377200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3392600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3384,239 +3486,251 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2849800</v>
+      </c>
+      <c r="E47" s="3">
         <v>3007700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3151100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2994700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1443300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1506000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1578100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1545700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1631300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1728600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1276600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1222600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1247600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1187800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1181300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1194400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1194800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1214800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1193300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1141100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1120600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>974200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>916700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>898000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>985800</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>54751400</v>
+      </c>
+      <c r="E48" s="3">
         <v>54433800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>54686500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>57946300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>34465600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>34797100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>34626000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35219600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34799600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35422400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35738700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35940500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>35303800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>35329900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35159700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35081500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>33215800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>32977000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>32187700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>32427900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>31610400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>30993100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>31595700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>31538400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>30913200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3800700</v>
+      </c>
+      <c r="E49" s="3">
         <v>3974100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4118300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4653400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>802300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>828200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>850000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>874500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>912900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1031500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1076100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1117000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1230000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1276200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1381400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1441800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1528600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1617300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1734900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1857400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2036700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2205600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2415900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2565000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2832800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,85 +3886,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>267800</v>
+      </c>
+      <c r="E52" s="3">
         <v>347200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>439800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>611900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>537500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>368000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>399900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>378100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>390400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>513200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>626300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>610600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1113800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>846300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1002600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>533400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>827300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>656000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1076900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1146500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>747400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1176500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>735900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>652000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>930500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69811200</v>
+      </c>
+      <c r="E54" s="3">
         <v>69747600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>70208200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>74569800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41499300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41824100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>42065000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42048000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44421100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45193800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>47144800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43749200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43549000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>43067900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>44717000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43208900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>42149500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>42019400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>42493700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>42040100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>41006700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>41019500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>41442900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>41620500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>41797800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,85 +4188,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>711100</v>
+      </c>
+      <c r="E57" s="3">
         <v>730700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>750800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>850200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>263600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>281300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>243700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>222200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>223100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>220100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>240400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>239100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>233400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>245800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>272000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>294300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>274900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>283900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>303900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>307400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>288100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>295500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>302400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>330400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>276700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4167,23 +4301,23 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9000</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -4194,8 +4328,8 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4212,85 +4346,91 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3535700</v>
+      </c>
+      <c r="E59" s="3">
         <v>3578300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3512900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2329700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2566800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2650700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2670700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2697700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2876000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3186500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3244500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3336800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3326300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3413000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3268700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3363100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3314500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3492500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3544100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3690200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3806900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3878800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3896900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4100200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4366,162 +4506,171 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>47350100</v>
+      </c>
+      <c r="E61" s="3">
         <v>47927900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>48912900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>50204700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>27539700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>28098600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>28553100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>28742100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31087100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30683900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32760800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29474500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29280000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29014200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30750100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29507600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28387500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28545500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28890300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28420700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>27287600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>27181000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>27520500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>27717000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>27997900</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1925700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1859500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1807600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2085200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1054900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>996000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>954000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>913400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>884100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>990300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>950200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>910300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>935800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>892200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>842100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>804600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>789900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>750500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>712400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>673900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>685900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>655900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>615300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>579000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>474100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54243500</v>
+      </c>
+      <c r="E66" s="3">
         <v>54713200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55555100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57999000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31644400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>32440600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32925600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>33183600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35609700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35559800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37761900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34434300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34374100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34054900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>35810800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34380900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33279700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>33349900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>33901100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33460400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>32460300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>32498700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>32923200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>33096000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>33428300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7181000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6741800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6408100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8410300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8322600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7888700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7625700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7399700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7380700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8232500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7986100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7734600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7424100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7157200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6825300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6591700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6359700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6096000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5846500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5580300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5313100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5047300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4767400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4509000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4147000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15567700</v>
+      </c>
+      <c r="E76" s="3">
         <v>15034400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14653100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16570700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9855000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9383500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9139300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8864500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8811400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9634000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9382900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9314900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9174900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9013000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8906200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8828000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8869900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8669500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8592600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8579700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8546500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8520800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>8519700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>8524400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>8369500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E81" s="3">
         <v>339800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>88800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>433900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>249800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>228000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>28500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-849900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>246100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>276800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>309800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>270300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>331500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>234200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>232600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>263400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>254200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>265400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>266300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>265800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>282900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>261200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>364700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,85 +6013,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>580900</v>
+      </c>
+      <c r="E83" s="3">
         <v>580700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>634400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>555800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>393400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>392200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>396600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>401800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>416000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>411800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>415800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>415900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>415300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>419100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>425800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>428500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>415300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>422100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>425500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>428200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>431000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>438900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>442800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>438200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>444600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1111900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1171900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1336600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1734500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>787800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>771200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>652500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>541000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>307900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>628900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>768300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>817100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>774500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>745700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>778400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>716700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>607300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>738000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>724300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>817200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>797200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>801500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>935200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>831100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6603,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-215000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-237900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-177200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-45400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-99100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-146100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-98600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-61300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-354100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-436100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-298900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-280300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-406700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-637200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-420300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-448000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-325800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-366900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-308500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-870900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1424200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-856500</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-844200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-216100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-646600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23038300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-187300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-302600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>69300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-220800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>70000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-326200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-235200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-714600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-910900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-546100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-783200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1737800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1073100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-718900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-522900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1447000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-893300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-608400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-478700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-774500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6953,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7031,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,235 +7271,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-403700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-897800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1259100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21683500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-660400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-550600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-288700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2463400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>270100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2221500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3189500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>48700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>321700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1832400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1197100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>965800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-93700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-484500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>212800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>928800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-70800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-522900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-422700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-352100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1274100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E101" s="3">
-        <v>500</v>
       </c>
       <c r="F101" s="3">
         <v>500</v>
       </c>
       <c r="G101" s="3">
+        <v>500</v>
+      </c>
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1500</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-400</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-145700</v>
+      </c>
+      <c r="E102" s="3">
         <v>56200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-568500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>380200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-58900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-82100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>180200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2030500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>882700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2239400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3582200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>103700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>226300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1603900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1159200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-449700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-593700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>428000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>205400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-146800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-334600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-99800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-192600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-356500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>AER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,360 +665,372 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1707600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1654800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1635500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1786700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1417600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1416800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1209600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1090600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1017500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1019400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1187300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1179800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1208300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1153600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1203100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1183500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1178900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1146500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1143400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1129800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1214500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1210200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1194200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1189500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1309900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1203700</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>260900</v>
+      </c>
+      <c r="E9" s="3">
         <v>161400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>193200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>208100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>162000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>53500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>59000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>39200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>75300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>51200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>52200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>94700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>86900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>44100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>65200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>91700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>125900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>84800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>103300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>132500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>141200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>137800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>136300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>122400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>143300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>128700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1446700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1493400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1442300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1578600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1255600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1363300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1150600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1051400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>942200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>968200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1135100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1085100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1121400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1109500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1137900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1091800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1053000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1061700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1040100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>997300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1073300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1072400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1057900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1067100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1166600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1075000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,168 +1223,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>32700</v>
+        <v>5200</v>
       </c>
       <c r="E14" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F14" s="3">
         <v>21900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2749700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>146000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>153000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>126300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>53200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>118500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1015800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>98800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>16100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>31200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>17800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>15300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>12800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>14000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>10400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>45600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>10000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>9900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>19700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>593700</v>
+      </c>
+      <c r="E15" s="3">
         <v>580900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>580700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>634400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>555800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>393400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>392200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>396600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>401800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>416000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>411800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>415800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>415900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>415300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>419100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>425800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>425900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>412700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>417700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>422700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>425400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>428300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>435000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>438500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>433500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>439900</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>880400</v>
+        <v>951700</v>
       </c>
       <c r="E17" s="3">
+        <v>864400</v>
+      </c>
+      <c r="F17" s="3">
         <v>900800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3689600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>983100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>668000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>650500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>546300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>659300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1543900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>615700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>597600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>590200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>555300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>566700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>589500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>637800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>573800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>620300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>643100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>673200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>695700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>666000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>654300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>693300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>693400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>774400</v>
+        <v>756000</v>
       </c>
       <c r="E18" s="3">
+        <v>790400</v>
+      </c>
+      <c r="F18" s="3">
         <v>734700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1902900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>434500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>748800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>559100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>544300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>358200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-524500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>571600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>582200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>618100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>598300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>636400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>594000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>541100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>572700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>523100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>486700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>541300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>514500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>528200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>535200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>616600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>510300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,408 +1616,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>77400</v>
+        <v>123700</v>
       </c>
       <c r="E20" s="3">
+        <v>61400</v>
+      </c>
+      <c r="F20" s="3">
         <v>22700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>27200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>39800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>22500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-121200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>45800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>107400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>37100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>68400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>19900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>25000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>55800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>105900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>51900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>61700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>60500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>40800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>77200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1473300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1432800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1338200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1265100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1017500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1181900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>973700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>943100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>745000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-229700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1005200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1043800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1141400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1050800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1123800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1025500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>989500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1013000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1001000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1018000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1021400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1007200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1027600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1018800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1132000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>975700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>420300</v>
+      </c>
+      <c r="E22" s="3">
         <v>390800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>380800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>369500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>287200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>292900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>280800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>310500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>307300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>309700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>306100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>374900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>308900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>322600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>318300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>301800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>297000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>289400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>291000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>274900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>278200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>266000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>279200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>271300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>272400</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>459300</v>
+      </c>
+      <c r="E23" s="3">
         <v>461100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>357500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2280300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>92200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>501300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>288700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>265800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-953000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>283700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>321900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>350600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>326500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>382100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>281400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>259200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>289500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>301600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>318300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>298000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>322700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>296800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>422600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>64300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>50000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-278300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>62100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>40500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>39900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-106100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>43500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>39000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>42400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>49700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>39100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>37600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>39200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>28000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>34200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>42000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>38600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>60700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>459500</v>
+      </c>
+      <c r="E26" s="3">
         <v>396800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>307400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2002000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>72100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>439200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>248200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>225900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-846900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>245400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>278500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>311600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>284100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>332500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>244800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>231000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>261600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>251900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>262400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>290300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>263900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>280800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>258300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>361900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>216100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E27" s="3">
         <v>440000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>339800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>88800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>433900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>249800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>228000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-849900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>246100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>276800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>309800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>270300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>331500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>234200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>232600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>263400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>254200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>265400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>288300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>265800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>282900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>261200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>364700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2348,8 +2408,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2366,11 +2426,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>-22000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2384,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-77400</v>
+        <v>-123700</v>
       </c>
       <c r="E32" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-22700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-27200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-39800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-22500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>121200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-45800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-107400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-37100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-68400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-19900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-25000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-55800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-105900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-51900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-61700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-60500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-40800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-77200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-20800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E33" s="3">
         <v>440000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>339800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>88800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>433900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>249800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>228000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-849900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>246100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>276800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>309800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>270300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>331500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>234200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>232600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>263400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>254200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>265400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>266300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>265800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>282900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>261200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>364700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E35" s="3">
         <v>440000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>339800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>88800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>433900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>249800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>228000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-849900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>246100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>276800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>309800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>270300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>331500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>234200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>232600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>263400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>254200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>265400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>266300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>265800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>282900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>261200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>364700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1597100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1098500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1229000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1185700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1728800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1311200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1402900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1447500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1248800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3244400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2382700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4693900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1121400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1036900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>782900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2348100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1204000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1176000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1598500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2152200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1659700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1454200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1601100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1935600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2035400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2228000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3169,105 +3258,111 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>593300</v>
+      </c>
+      <c r="E43" s="3">
         <v>487100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>469400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>567100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>636500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>647200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>525400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>349000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>343200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>428900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>419800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>279200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>403400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>330400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>276000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>241200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>260700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>335500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>266700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>286000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>425800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>301900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>259600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>218100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>253700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E44" s="3">
         <v>43000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>53400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>51900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>48600</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -3284,133 +3379,139 @@
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <v>3200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>57200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>20300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>31000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>55000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>37100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>37000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>39000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>42300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>46900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>59400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>52700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4522400</v>
+      </c>
+      <c r="E45" s="3">
         <v>5346400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5234800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5056500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5039100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2070100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2078600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2421700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2237200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3465400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3212200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3052900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3012300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3038300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3069700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3104300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3400300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3241800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3468900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3037000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3430300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3521600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3324300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3377200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3392600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3489,248 +3590,260 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2256200</v>
+      </c>
+      <c r="E47" s="3">
         <v>2849800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3007700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3151100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2994700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1443300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1506000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1578100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1545700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1631300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1728600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1276600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1222600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1247600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1187800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1181300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1194400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1194800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1214800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1193300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1141100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1120600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>974200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>916700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>898000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>985800</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>55302800</v>
+      </c>
+      <c r="E48" s="3">
         <v>54751400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>54433800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>54686500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>57946300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>34465600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>34797100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>34626000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35219600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34799600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35422400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35738700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>35940500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>35303800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35329900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35159700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35081500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>33215800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>32977000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>32187700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>32427900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>31610400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>30993100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>31595700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>31538400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>30913200</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3549700</v>
+      </c>
+      <c r="E49" s="3">
         <v>3800700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3974100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4118300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4653400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>802300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>828200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>850000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>874500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>912900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1031500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1076100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1117000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1230000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1276200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1381400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1441800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1528600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1617300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1734900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1857400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2036700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2205600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2415900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2565000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2832800</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>662800</v>
+      </c>
+      <c r="E52" s="3">
         <v>267800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>347200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>439800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>611900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>537500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>368000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>399900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>378100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>390400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>513200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>626300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>610600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1113800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>846300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1002600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>533400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>827300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>656000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1076900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1146500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>747400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1176500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>735900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>652000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>930500</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69726900</v>
+      </c>
+      <c r="E54" s="3">
         <v>69811200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69747600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>70208200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>74569800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41499300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41824100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42065000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42048000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44421100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45193800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>47144800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43749200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>43549000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>43067900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>44717000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43208900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>42149500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>42019400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>42493700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>42040100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>41006700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>41019500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>41442900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>41620500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>41797800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,88 +4318,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>475200</v>
+      </c>
+      <c r="E57" s="3">
         <v>711100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>730700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>750800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>850200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>263600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>281300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>243700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>222200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>223100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>220100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>240400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>239100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>233400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>245800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>272000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>294300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>274900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>283900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>303900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>307400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>288100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>295500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>302400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>330400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>276700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4304,23 +4437,23 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9000</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -4331,8 +4464,8 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4349,88 +4482,94 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3782000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3535700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3578300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3512900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4200400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2329700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2566800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2650700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2670700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2697700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2876000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3186500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3244500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3336800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3326300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3413000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3268700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3363100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3314500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3492500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3544100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3690200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3806900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3878800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3896900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4100200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4509,168 +4648,177 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>46533000</v>
+      </c>
+      <c r="E61" s="3">
         <v>47350100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>47927900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>48912900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>50204700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>27539700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>28098600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>28553100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28742100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31087100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30683900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32760800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29474500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29280000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29014200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30750100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>29507600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28387500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28545500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28890300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28420700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>27287600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>27181000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>27520500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>27717000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>27997900</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2194100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1925700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1859500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1807600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2085200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1054900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>996000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>954000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>913400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>884100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>990300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>950200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>910300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>935800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>892200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>842100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>804600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>789900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>750500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>712400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>673900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>685900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>655900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>615300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>579000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>474100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53609400</v>
+      </c>
+      <c r="E66" s="3">
         <v>54243500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54713200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55555100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57999000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31644400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32440600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32925600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33183600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35609700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>35559800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37761900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34434300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34374100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34054900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>35810800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34380900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>33279700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>33349900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33901100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33460400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>32460300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>32498700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>32923200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>33096000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>33428300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7674900</v>
+      </c>
+      <c r="E72" s="3">
         <v>7181000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6741800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6408100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8410300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8322600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7888700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7625700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7399700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7380700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8232500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7986100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7734600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7424100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7157200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6825300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6591700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6359700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6096000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5846500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5580300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5313100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5047300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4767400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4509000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4147000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16117500</v>
+      </c>
+      <c r="E76" s="3">
         <v>15567700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15034400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14653100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16570700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9855000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9383500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9139300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8864500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8811400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9634000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9382900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9314900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9174900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9013000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8906200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8828000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8869900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8669500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8592600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8579700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8546500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>8520800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>8519700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>8524400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>8369500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E81" s="3">
         <v>440000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>339800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>88800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>433900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>249800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>228000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-849900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>246100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>276800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>309800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>270300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>331500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>234200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>232600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>263400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>254200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>265400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>266300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>265800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>282900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>261200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>364700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,88 +6211,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>593700</v>
+      </c>
+      <c r="E83" s="3">
         <v>580900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>580700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>634400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>555800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>393400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>392200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>396600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>401800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>416000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>411800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>415800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>415900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>415300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>419100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>425800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>428500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>415300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>422100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>425500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>428200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>431000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>438900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>442800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>438200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>444600</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1550600</v>
+      </c>
+      <c r="E89" s="3">
         <v>1111900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1171900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1336600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1734500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>787800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>771200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>652500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>541000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>307900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>628900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>768300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>817100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>774500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>745700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>778400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>716700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>607300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>738000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>724300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>817200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>797200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>801500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>935200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>831100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>238500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-215000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-237900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-177200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-45400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-99100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-146100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-98600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-61300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-354100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-436100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-298900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-280300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-406700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-637200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-420300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-448000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-325800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-366900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-308500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-870900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1424200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-856500</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-453600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-844200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-216100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-646600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23038300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-187300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-302600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>69300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-220800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>70000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-326200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-235200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-714600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-910900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-546100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-783200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1737800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1073100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-718900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-522900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1447000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-893300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-608400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-478700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-774500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7034,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,244 +7516,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-403700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-897800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1259100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>21683500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-660400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-550600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-288700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2463400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>270100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2221500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3189500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>48700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>321700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1832400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1197100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>965800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-93700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-484500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>212800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>928800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-70800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-522900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-422700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-352100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1274100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F101" s="3">
-        <v>500</v>
       </c>
       <c r="G101" s="3">
         <v>500</v>
       </c>
       <c r="H101" s="3">
+        <v>500</v>
+      </c>
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-700</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-400</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-145700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>56200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-568500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>380200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-58900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-82100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>180200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2030500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>882700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2239400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3582200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>103700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>226300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1603900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1159200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-449700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-593700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>428000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>205400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-146800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-334600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-99800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-192600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-356500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>AER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1766200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1707600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1654800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1635500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1786700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1417600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1416800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1209600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1090600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1017500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1019400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1187300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1179800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1208300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1153600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1203100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1183500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1178900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1146500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1143400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1129800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1214500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1210200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1194200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1189500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1309900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1203700</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E9" s="3">
         <v>260900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>161400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>193200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>208100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>162000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>53500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>59000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>75300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>51200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>52200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>94700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>86900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>44100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>65200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>91700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>125900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>84800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>103300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>132500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>141200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>137800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>136300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>122400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>143300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>128700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1540200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1446700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1493400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1442300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1578600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1255600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1363300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1150600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1051400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>942200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>968200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1135100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1085100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1121400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1109500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1137900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1091800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1053000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1061700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1040100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>997300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1073300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1072400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1057900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1067100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1166600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1075000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,174 +1243,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E14" s="3">
         <v>5200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>16700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>21900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2749700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>146000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>153000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>126300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>53200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>118500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1015800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>98800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>22500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>16100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>31200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>17800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>12800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>10400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>45600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>10000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>9900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>19700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>610500</v>
+      </c>
+      <c r="E15" s="3">
         <v>593700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>580900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>580700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>634400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>555800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>393400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>392200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>396600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>401800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>416000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>411800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>415800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>415900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>415300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>419100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>425800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>425900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>412700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>417700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>422700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>425400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>428300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>435000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>438500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>433500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>439900</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>970400</v>
+      </c>
+      <c r="E17" s="3">
         <v>951700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>864400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3689600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>983100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>668000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>650500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>546300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>659300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1543900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>615700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>597600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>590200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>555300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>566700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>589500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>637800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>573800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>620300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>643100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>673200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>695700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>666000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>654300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>693300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>693400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>795800</v>
+      </c>
+      <c r="E18" s="3">
         <v>756000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>790400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>734700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1902900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>434500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>748800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>559100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>544300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>358200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-524500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>571600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>582200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>618100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>598300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>636400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>594000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>541100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>572700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>523100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>486700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>541300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>514500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>528200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>535200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>616600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>510300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,423 +1650,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>108800</v>
+      </c>
+      <c r="E20" s="3">
         <v>123700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>61400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>22700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>27200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>39800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>22500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-121200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>21800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>45800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>107400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>37100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>68400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>19900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>55800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>105900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>51900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>61700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>60500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>40800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>77200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1515100</v>
+      </c>
+      <c r="E21" s="3">
         <v>1473300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1432800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1338200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1265100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1017500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1181900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>973700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>943100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>745000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-229700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1005200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1043800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1141400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1050800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1123800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1025500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>989500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1013000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1001000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1018000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1021400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1007200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1027600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1018800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1132000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>975700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>436200</v>
+      </c>
+      <c r="E22" s="3">
         <v>420300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>390800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>380800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>369500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>287200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>292900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>280800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>310500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>307300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>309700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>306100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>374900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>308900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>322600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>318300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>301800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>297000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>289400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>291000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>274900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>278200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>266000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>279200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>271300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>272400</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>468300</v>
+      </c>
+      <c r="E23" s="3">
         <v>459300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>461100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>357500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2280300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>92200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>501300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>288700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>265800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-953000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>283700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>321900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>350600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>326500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>382100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>281400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>259200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>300700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>289500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>301600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>318300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>298000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>322700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>296800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>422600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>64300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>50000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-278300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>62100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>40500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-106100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>43500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>39000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>42400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>49700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>36600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>39100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>37600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>39200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>28000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>34200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>42000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>38600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>60700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>402700</v>
+      </c>
+      <c r="E26" s="3">
         <v>459500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>396800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>307400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2002000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>72100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>439200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>248200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>225900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-846900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>245400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>278500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>311600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>284100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>332500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>244800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>231000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>261600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>251900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>262400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>290300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>263900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>280800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>258300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>361900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>216100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>432100</v>
+      </c>
+      <c r="E27" s="3">
         <v>495000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>440000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>339800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>88800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>433900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>249800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>228000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-849900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>246100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>276800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>309800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>270300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>331500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>234200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>232600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>263400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>254200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>265400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>288300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>265800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>282900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>261200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>364700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2411,8 +2472,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2429,11 +2490,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-22000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-108800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-123700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-61400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-22700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-27200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-39800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-22500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>121200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-21800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-45800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-107400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-37100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-68400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-19900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-55800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-105900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-51900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-61700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-60500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-40800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-77200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-20800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>432100</v>
+      </c>
+      <c r="E33" s="3">
         <v>495000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>440000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>339800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>88800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>433900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>249800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>228000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-849900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>246100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>276800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>309800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>270300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>331500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>234200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>232600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>263400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>254200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>265400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>266300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>265800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>282900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>261200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>364700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>432100</v>
+      </c>
+      <c r="E35" s="3">
         <v>495000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>440000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>339800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>88800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>433900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>249800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>228000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-849900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>246100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>276800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>309800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>270300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>331500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>234200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>232600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>263400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>254200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>265400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>266300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>265800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>282900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>261200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>364700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1089000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1597100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1098500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1229000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1185700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1728800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1311200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1402900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1447500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1248800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3244400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2382700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4693900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1121400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1036900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>782900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2348100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1204000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1176000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1598500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2152200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1659700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1454200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1601100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1935600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2035400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2228000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,111 +3351,117 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>624300</v>
+      </c>
+      <c r="E43" s="3">
         <v>593300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>487100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>469400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>567100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>636500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>647200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>525400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>349000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>343200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>428900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>419800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>279200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>403400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>330400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>276000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>241200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>260700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>335500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>266700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>286000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>425800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>301900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>259600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>218100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>253700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E44" s="3">
         <v>55900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>43000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>53400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>51900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>48600</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -3382,136 +3478,142 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
         <v>3200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>57200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>20300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>31000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>55000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>37100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>37000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>39000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>42300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>46900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>59400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>52700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4709300</v>
+      </c>
+      <c r="E45" s="3">
         <v>4522400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5346400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5234800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5056500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5039100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2070100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2078600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2421700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2237200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3465400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3212200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3052900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3012300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3038300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3069700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3104300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3400300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3241800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3468900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3037000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3430300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3521600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3324300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3377200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3392600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,257 +3695,269 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2131400</v>
+      </c>
+      <c r="E47" s="3">
         <v>2256200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2849800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3007700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3151100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2994700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1443300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1506000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1578100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1545700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1631300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1728600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1276600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1222600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1247600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1187800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1181300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1194400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1194800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1214800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1193300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1141100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1120600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>974200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>916700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>898000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>985800</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>55563100</v>
+      </c>
+      <c r="E48" s="3">
         <v>55302800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>54751400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>54433800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>54686500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>57946300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>34465600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>34797100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34626000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35219600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34799600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35422400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>35738700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>35940500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35303800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35329900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35159700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35081500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>33215800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>32977000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>32187700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>32427900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>31610400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>30993100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>31595700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>31538400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>30913200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3334900</v>
+      </c>
+      <c r="E49" s="3">
         <v>3549700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3800700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3974100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4118300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4653400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>802300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>828200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>850000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>874500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>912900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1031500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1076100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1117000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1230000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1276200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1381400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1441800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1528600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1617300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1734900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1857400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2036700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2205600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2415900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2565000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2832800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>996900</v>
+      </c>
+      <c r="E52" s="3">
         <v>662800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>267800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>347200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>439800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>611900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>537500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>368000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>399900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>378100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>390400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>513200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>626300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>610600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1113800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>846300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1002600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>533400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>827300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>656000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1076900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1146500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>747400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1176500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>735900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>652000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>930500</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69684400</v>
+      </c>
+      <c r="E54" s="3">
         <v>69726900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69811200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>69747600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>70208200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>74569800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41499300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41824100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42065000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42048000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44421100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45193800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>47144800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>43749200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>43549000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43067900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>44717000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>43208900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>42149500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>42019400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>42493700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>42040100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>41006700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>41019500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>41442900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>41620500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>41797800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4449,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>582000</v>
+      </c>
+      <c r="E57" s="3">
         <v>475200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>711100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>730700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>750800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>850200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>263600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>281300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>243700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>222200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>223100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>220100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>240400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>239100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>233400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>245800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>272000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>294300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>274900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>283900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>303900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>307400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>288100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>295500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>302400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>330400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>276700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4440,23 +4574,23 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9000</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
@@ -4467,8 +4601,8 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4485,91 +4619,97 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3814400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3782000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3535700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3578300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3512900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4200400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2329700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2566800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2650700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2670700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2697700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2876000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3186500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3244500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3336800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3326300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3413000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3268700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3363100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3314500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3492500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3544100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3690200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3806900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3878800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3896900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4100200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,174 +4791,183 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>46295900</v>
+      </c>
+      <c r="E61" s="3">
         <v>46533000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>47350100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>47927900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>48912900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>50204700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>27539700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>28098600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28553100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28742100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31087100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30683900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32760800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29474500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29280000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29014200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>30750100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>29507600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28387500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28545500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28890300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>28420700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>27287600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>27181000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>27520500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>27717000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>27997900</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2260000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2194100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1925700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1859500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1807600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2085200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1054900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>996000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>954000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>913400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>884100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>990300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>950200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>910300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>935800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>892200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>842100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>804600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>789900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>750500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>712400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>673900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>685900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>655900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>615300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>579000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>474100</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53639000</v>
+      </c>
+      <c r="E66" s="3">
         <v>53609400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54243500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54713200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55555100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>57999000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31644400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32440600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32925600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33183600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>35609700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>35559800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>37761900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34434300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34374100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34054900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>35810800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34380900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>33279700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33349900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33901100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>33460400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>32460300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>32498700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>32923200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>33096000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>33428300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8104800</v>
+      </c>
+      <c r="E72" s="3">
         <v>7674900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7181000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6741800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6408100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8410300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8322600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7888700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7625700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7399700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7380700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8232500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7986100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7734600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7424100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7157200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6825300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6591700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6359700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6096000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5846500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5580300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5313100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5047300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4767400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4509000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>4147000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16045400</v>
+      </c>
+      <c r="E76" s="3">
         <v>16117500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15567700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15034400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14653100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16570700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9855000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9383500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9139300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8864500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8811400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9634000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9382900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9314900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9174900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9013000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8906200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8828000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8869900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8669500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8592600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8579700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>8546500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>8520800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>8519700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>8524400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>8369500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>432100</v>
+      </c>
+      <c r="E81" s="3">
         <v>495000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>440000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>339800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>88800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>433900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>249800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>228000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-849900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>246100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>276800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>309800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>270300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>331500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>234200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>232600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>263400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>254200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>265400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>266300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>265800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>282900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>261200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>364700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6410,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>610500</v>
+      </c>
+      <c r="E83" s="3">
         <v>593700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>580900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>580700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>634400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>555800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>393400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>392200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>396600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>401800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>416000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>411800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>415800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>415900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>415300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>419100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>425800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>428500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>415300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>422100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>425500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>428200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>431000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>438900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>442800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>438200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>444600</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1363400</v>
+      </c>
+      <c r="E89" s="3">
         <v>1550600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1111900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1171900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1336600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1734500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>787800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>771200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>652500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>541000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>307900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>628900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>768300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>817100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>774500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>745700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>778400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>716700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>607300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>738000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>724300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>817200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>797200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>801500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>935200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>831100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>238500</v>
+        <v>-1740700</v>
       </c>
       <c r="E91" s="3">
-        <v>-215000</v>
+        <v>-944700</v>
       </c>
       <c r="F91" s="3">
-        <v>-237900</v>
+        <v>-1183100</v>
       </c>
       <c r="G91" s="3">
-        <v>-177200</v>
+        <v>-685000</v>
       </c>
       <c r="H91" s="3">
-        <v>-10500</v>
+        <v>-1058800</v>
       </c>
       <c r="I91" s="3">
-        <v>-45400</v>
+        <v>-975800</v>
       </c>
       <c r="J91" s="3">
+        <v>-312900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-19500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-99100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-146100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-98600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-61300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-354100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-436100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-298900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-280300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-406700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-637200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-420300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-448000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-325800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-366900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-308500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-870900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1424200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-856500</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1278100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-453600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-844200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-216100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-646600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23038300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-187300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-302600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>69300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-220800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>70000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-326200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-235200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-714600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-910900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-546100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-783200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1737800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1073100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-718900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-522900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1447000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-893300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-608400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-478700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-774500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +7762,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-579700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-403700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-897800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1259100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>21683500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-660400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-550600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-288700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2463400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>270100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2221500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3189500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>48700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>321700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1832400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1197100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>965800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-93700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-484500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>212800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>928800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-70800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-522900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-422700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-352100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1274100</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1800</v>
-      </c>
-      <c r="G101" s="3">
-        <v>500</v>
       </c>
       <c r="H101" s="3">
         <v>500</v>
       </c>
       <c r="I101" s="3">
+        <v>500</v>
+      </c>
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1500</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-700</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-400</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
       <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-493100</v>
+      </c>
+      <c r="E102" s="3">
         <v>500100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-145700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>56200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-568500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>380200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-58900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-82100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>180200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2030500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>882700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2239400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3582200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>103700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>226300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1603900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1159200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-449700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-593700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>428000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>205400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-146800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-334600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-99800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-192600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-356500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>AER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,398 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1758500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1766200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1707600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1654800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1635500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1786700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1417600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1416800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1209600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1090600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1017500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1019400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1187300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1179800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1208300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1153600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1203100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1183500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1178900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1146500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1143400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1129800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1214500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1210200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1194200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1189500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1309900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1203700</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>229200</v>
+      </c>
+      <c r="E9" s="3">
         <v>226000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>260900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>161400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>193200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>208100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>162000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>53500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>59000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>75300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>51200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>52200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>94700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>86900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>44100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>65200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>91700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>125900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>84800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>103300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>132500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>141200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>137800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>136300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>122400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>143300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>128700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1529300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1540200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1446700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1493400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1442300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1578600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1255600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1363300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1150600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1051400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>942200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>968200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1135100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1085100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1121400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1109500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1137900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1091800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1053000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1061700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1040100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>997300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1073300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1072400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1057900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1067100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1166600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1075000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,180 +1263,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E14" s="3">
         <v>23300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>16700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>21900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2749700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>146000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>153000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>126300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>53200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>118500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1015800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>98800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>22500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>16100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>31200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>17800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>12800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>14000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>10400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>45600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>10000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>9900</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>19700</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>615600</v>
+      </c>
+      <c r="E15" s="3">
         <v>610500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>593700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>580900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>580700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>634400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>555800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>393400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>392200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>396600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>401800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>416000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>411800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>415800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>415900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>415300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>419100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>425800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>425900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>412700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>417700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>422700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>425400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>428300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>435000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>438500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>433500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>439900</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>953500</v>
+      </c>
+      <c r="E17" s="3">
         <v>970400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>951700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>864400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3689600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>983100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>668000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>650500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>546300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>659300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1543900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>615700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>597600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>590200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>555300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>566700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>589500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>637800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>573800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>620300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>643100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>673200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>695700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>666000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>654300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>693300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>693400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>805000</v>
+      </c>
+      <c r="E18" s="3">
         <v>795800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>756000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>790400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>734700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1902900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>434500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>748800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>559100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>544300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>358200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-524500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>571600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>582200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>618100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>598300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>636400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>594000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>541100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>572700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>523100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>486700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>541300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>514500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>528200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>535200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>616600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>510300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,438 +1684,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>160600</v>
+      </c>
+      <c r="E20" s="3">
         <v>108800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>123700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>61400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>22700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>27200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>39800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>22500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-121200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>21800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>45800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>107400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>37100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>68400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>19900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>25000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>55800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>105900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>51900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>61700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>60500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>40800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>77200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1581200</v>
+      </c>
+      <c r="E21" s="3">
         <v>1515100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1473300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1432800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1338200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1265100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1017500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1181900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>973700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>943100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>745000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-229700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1005200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1043800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1141400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1050800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1123800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1025500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>989500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1013000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1001000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1018000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1021400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1007200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1027600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1018800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1132000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>975700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>427400</v>
+      </c>
+      <c r="E22" s="3">
         <v>436200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>420300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>390800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>380800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>369500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>287200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>292900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>280800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>310500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>307300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>309700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>306100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>374900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>308900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>322600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>318300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>301800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>297000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>289400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>291000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>274900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>278200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>266000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>279200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>271300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>272400</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>538200</v>
+      </c>
+      <c r="E23" s="3">
         <v>468300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>459300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>461100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>357500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2280300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>92200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>501300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>288700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>265800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>32700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-953000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>283700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>321900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>350600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>326500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>382100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>281400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>259200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>300700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>289500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>301600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>318300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>298000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>322700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>296800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>422600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E24" s="3">
         <v>65600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>64300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>50000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-278300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>20000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>62100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-106100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>38300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>43500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>39000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>42400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>49700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>36600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>28100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>39100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>37600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>39200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>28000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>34200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>42000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>38600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>60700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>462500</v>
+      </c>
+      <c r="E26" s="3">
         <v>402700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>459500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>396800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>307400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2002000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>72100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>439200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>248200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>225900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-846900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>245400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>278500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>311600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>284100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>332500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>244800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>231000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>261600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>251900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>262400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>290300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>263900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>280800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>258300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>361900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>216100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>492900</v>
+      </c>
+      <c r="E27" s="3">
         <v>432100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>495000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>440000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>339800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2000800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>88800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>433900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>249800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>228000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-849900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>246100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>276800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>309800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>270300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>331500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>234200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>232600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>263400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>254200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>265400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>288300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>265800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>282900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>261200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>364700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2475,8 +2536,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2493,11 +2554,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-22000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2750,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-160600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-108800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-123700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-61400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-22700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-27200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-39800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-22500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>121200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-21800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-45800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-107400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-37100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-68400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-19900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-25000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-55800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-105900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-51900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-61700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-60500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-40800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-77200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-20800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>492900</v>
+      </c>
+      <c r="E33" s="3">
         <v>432100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>495000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>440000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>339800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2000800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>88800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>433900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>249800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>228000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-849900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>246100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>276800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>309800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>270300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>331500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>234200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>232600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>263400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>254200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>265400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>266300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>265800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>282900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>261200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>364700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>492900</v>
+      </c>
+      <c r="E35" s="3">
         <v>432100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>495000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>440000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>339800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2000800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>88800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>433900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>249800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>228000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-849900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>246100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>276800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>309800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>270300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>331500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>234200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>232600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>263400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>254200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>265400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>266300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>265800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>282900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>261200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>364700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3268,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1153900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1089000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1597100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1098500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1229000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1185700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1728800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1311200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1402900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1447500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1248800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3244400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2382700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4693900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1121400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1036900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>782900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2348100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1204000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1176000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1598500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2152200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1659700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1454200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1601100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1935600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2035400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2228000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,117 +3444,123 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>561500</v>
+      </c>
+      <c r="E43" s="3">
         <v>624300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>593300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>487100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>469400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>567100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>636500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>647200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>525400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>349000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>343200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>428900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>419800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>279200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>403400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>330400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>276000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>241200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>260700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>335500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>266700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>286000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>425800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>301900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>259600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>218100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>253700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E44" s="3">
         <v>59200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>55900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>43000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>53400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>51900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>48600</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -3481,139 +3577,145 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
         <v>3200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>57200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>20300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>31000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>55000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>37100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>37000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>39000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>42300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>46900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>59400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>52700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4467500</v>
+      </c>
+      <c r="E45" s="3">
         <v>4709300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4522400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5346400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5234800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5056500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5039100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2070100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2078600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2421700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2237200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3465400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3212200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3052900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3012300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3038300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3069700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3104300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3400300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3241800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3468900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3037000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3430300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3521600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3324300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3377200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>3392600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3698,266 +3800,278 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2417800</v>
+      </c>
+      <c r="E47" s="3">
         <v>2131400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2256200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2849800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3007700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3151100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2994700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1443300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1506000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1578100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1545700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1631300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1728600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1276600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1222600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1247600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1187800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1181300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1194400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1194800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1214800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1193300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1141100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1120600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>974200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>916700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>898000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>985800</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>55675500</v>
+      </c>
+      <c r="E48" s="3">
         <v>55563100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>55302800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>54751400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>54433800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>54686500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>57946300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>34465600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34797100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34626000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35219600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34799600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>35422400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>35738700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35940500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35303800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35329900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35159700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>35081500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>33215800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>32977000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>32187700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>32427900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>31610400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>30993100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>31595700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>31538400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>30913200</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3151900</v>
+      </c>
+      <c r="E49" s="3">
         <v>3334900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3549700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3800700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3974100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4118300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4653400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>802300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>828200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>850000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>874500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>912900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1031500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1076100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1117000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1230000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1276200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1381400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1441800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1528600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1617300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1734900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1857400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2036700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2205600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2415900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2565000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2832800</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4245,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1177800</v>
+      </c>
+      <c r="E52" s="3">
         <v>996900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>662800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>267800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>347200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>439800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>611900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>537500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>368000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>399900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>378100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>390400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>513200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>626300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>610600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1113800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>846300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1002600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>533400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>827300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>656000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1076900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1146500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>747400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1176500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>735900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>652000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>930500</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69928400</v>
+      </c>
+      <c r="E54" s="3">
         <v>69684400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69726900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>69811200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>69747600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>70208200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>74569800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41499300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41824100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42065000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42048000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44421100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45193800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>47144800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>43749200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43549000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43067900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>44717000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>43208900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>42149500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>42019400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>42493700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>42040100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>41006700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>41019500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>41442900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>41620500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>41797800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,94 +4580,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>475300</v>
+      </c>
+      <c r="E57" s="3">
         <v>582000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>475200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>711100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>730700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>750800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>850200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>263600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>281300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>243700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>222200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>223100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>220100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>240400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>239100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>233400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>245800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>272000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>294300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>274900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>283900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>303900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>307400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>288100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>295500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>302400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>330400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>276700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4577,23 +4711,23 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9000</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
@@ -4604,8 +4738,8 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4622,94 +4756,100 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3889700</v>
+      </c>
+      <c r="E59" s="3">
         <v>3814400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3782000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3535700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3578300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3512900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2329700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2566800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2650700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2670700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2697700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2876000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3186500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3244500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3336800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3326300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3413000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3268700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3363100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3314500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3492500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3544100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3690200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3806900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3878800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3896900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>4100200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4794,180 +4934,189 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>46255800</v>
+      </c>
+      <c r="E61" s="3">
         <v>46295900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>46533000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>47350100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>47927900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>48912900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>50204700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>27539700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28098600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28553100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28742100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31087100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>30683900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32760800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29474500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29280000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>29014200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>30750100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>29507600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28387500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28545500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>28890300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>28420700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>27287600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>27181000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>27520500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>27717000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>27997900</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2333900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2260000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2194100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1925700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1859500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1807600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2085200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1054900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>996000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>954000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>913400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>884100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>990300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>950200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>910300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>935800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>892200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>842100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>804600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>789900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>750500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>712400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>673900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>685900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>655900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>615300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>579000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>474100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53616500</v>
+      </c>
+      <c r="E66" s="3">
         <v>53639000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53609400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54243500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54713200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>55555100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>57999000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31644400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32440600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32925600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33183600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>35609700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>35559800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>37761900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34434300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34374100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34054900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>35810800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>34380900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33279700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33349900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>33901100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>33460400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>32460300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>32498700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>32923200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>33096000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>33428300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8598000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8104800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7674900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7181000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6741800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6408100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8410300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8322600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7888700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7625700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7399700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7380700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8232500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7986100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7734600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7424100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7157200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6825300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6591700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6359700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6096000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5846500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5580300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5313100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5047300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4767400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>4509000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>4147000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16311900</v>
+      </c>
+      <c r="E76" s="3">
         <v>16045400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16117500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15567700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15034400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14653100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16570700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9855000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9383500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9139300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8864500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8811400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9634000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9382900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9314900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9174900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9013000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8906200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8828000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8869900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8669500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8592600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>8579700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>8546500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>8520800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>8519700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>8524400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>8369500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>492900</v>
+      </c>
+      <c r="E81" s="3">
         <v>432100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>495000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>440000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>339800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2000800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>88800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>433900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>249800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>228000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-849900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>246100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>276800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>309800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>270300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>331500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>234200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>232600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>263400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>254200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>265400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>266300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>265800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>282900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>261200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>364700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,94 +6609,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>615600</v>
+      </c>
+      <c r="E83" s="3">
         <v>610500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>593700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>580900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>580700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>634400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>555800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>393400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>392200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>396600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>401800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>416000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>411800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>415800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>415900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>415300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>419100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>425800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>428500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>415300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>422100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>425500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>428200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>431000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>438900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>442800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>438200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>444600</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1193200</v>
+      </c>
+      <c r="E89" s="3">
         <v>1363400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1550600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1111900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1171900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1336600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1734500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>787800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>771200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>652500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>541000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>307900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>628900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>768300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>817100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>774500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>745700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>778400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>716700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>607300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>738000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>724300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>817200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>797200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>801500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>935200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>831100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7265,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1338700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1740700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-944700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1183100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-685000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1058800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-975800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-312900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-99100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-146100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-98600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-61300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-354100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-436100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-298900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-280300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-406700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-637200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-420300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-448000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-325800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-366900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-308500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-870900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1424200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-856500</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-973200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1278100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-453600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-844200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-216100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-646600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23038300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-187300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-302600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>69300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-220800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>70000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-326200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-235200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-714600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-910900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-546100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-783200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1737800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1073100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-718900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-522900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1447000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-893300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-608400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-478700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-774500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,262 +8008,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-166500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-579700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-403700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-897800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1259100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21683500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-660400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-550600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-288700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2463400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>270100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2221500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3189500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>48700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>321700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1832400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1197100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>965800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-93700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-484500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>212800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>928800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-70800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-522900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-422700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-352100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1274100</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>500</v>
       </c>
       <c r="I101" s="3">
         <v>500</v>
       </c>
       <c r="J101" s="3">
+        <v>500</v>
+      </c>
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1500</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-700</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-400</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
       <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-493100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-145700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>56200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-568500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>380200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-58900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-82100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>180200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2030500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>882700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2239400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3582200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>103700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>226300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1603900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1159200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-449700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-593700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>428000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>205400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-146800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-334600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-99800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-192600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-356500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>AER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,398 +665,411 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1761800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1758500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1766200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1707600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1654800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1635500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1786700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1417600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1416800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1209600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1090600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1017500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1019400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1187300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1179800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1208300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1153600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1203100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1183500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1178900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1146500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1143400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1129800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1214500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1210200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1194200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1189500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1309900</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1203700</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E9" s="3">
         <v>229200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>226000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>260900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>161400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>193200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>208100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>162000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>53500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>59000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>75300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>51200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>52200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>94700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>86900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>44100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>65200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>91700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>125900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>84800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>103300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>132500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>141200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>137800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>136300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>122400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>143300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>128700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1595800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1529300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1540200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1446700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1493400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1442300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1578600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1255600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1363300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1150600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1051400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>942200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>968200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1135100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1085100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1121400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1109500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1137900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1091800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1053000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1061700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1040100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>997300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1073300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1072400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1057900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1067100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1166600</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1075000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1088,8 +1101,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1177,8 +1191,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,186 +1283,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-645500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-11100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>23300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>16700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>21900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2749700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>146000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>153000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>126300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>53200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>118500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1015800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>98800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>22500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>16100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>31200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>17800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>12800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>14000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>10400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>45600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>10000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>9900</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>19700</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>623000</v>
+      </c>
+      <c r="E15" s="3">
         <v>615600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>610500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>593700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>580900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>580700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>634400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>555800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>393400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>392200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>396600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>401800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>416000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>411800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>415800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>415900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>415300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>419100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>425800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>425900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>412700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>417700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>422700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>425400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>428300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>435000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>438500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>433500</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>439900</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,186 +1500,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>255500</v>
+      </c>
+      <c r="E17" s="3">
         <v>953500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>970400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>951700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>864400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3689600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>983100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>668000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>650500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>546300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>659300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1543900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>615700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>597600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>590200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>555300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>566700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>589500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>637800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>573800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>620300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>643100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>673200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>695700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>666000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>654300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>693300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>693400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1506300</v>
+      </c>
+      <c r="E18" s="3">
         <v>805000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>795800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>756000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>790400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>734700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1902900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>434500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>748800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>559100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>544300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>358200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-524500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>571600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>582200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>618100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>598300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>636400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>594000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>541100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>572700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>523100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>486700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>541300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>514500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>528200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>535200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>616600</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>510300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,453 +1718,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E20" s="3">
         <v>160600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>108800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>123700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>61400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>22700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>27200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>39800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>22500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-121200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>21800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>45800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>107400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>37100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>68400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>19900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>25000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>55800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>105900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>51900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>61700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>60500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>40800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>77200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2248700</v>
+      </c>
+      <c r="E21" s="3">
         <v>1581200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1515100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1473300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1432800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1338200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1265100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1017500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1181900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>973700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>943100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>745000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-229700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1005200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1043800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1141400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1050800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1123800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1025500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>989500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1013000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1001000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1018000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1021400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1007200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1027600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1018800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1132000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>975700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>447000</v>
+      </c>
+      <c r="E22" s="3">
         <v>427400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>436200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>420300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>390800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>380800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>369500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>287200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>292900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>280800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>310500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>307300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>309700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>306100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>374900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>308900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>322600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>318300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>301800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>297000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>289400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>291000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>274900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>278200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>266000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>279200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>271300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>272400</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1178700</v>
+      </c>
+      <c r="E23" s="3">
         <v>538200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>468300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>459300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>461100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>357500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2280300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>92200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>501300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>288700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>265800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>32700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-953000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>283700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>321900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>350600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>326500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>382100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>281400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>259200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>300700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>289500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>301600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>318300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>298000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>322700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>296800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>422600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E24" s="3">
         <v>75700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>65600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>64300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>50000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-278300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>62100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-106100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>43500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>39000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>42400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>49700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>36600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>28100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>39100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>37600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>39200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>28000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>34200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>42000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>38600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>60700</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,186 +2268,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="E26" s="3">
         <v>462500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>402700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>459500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>396800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>307400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2002000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>72100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>439200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>248200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>225900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-846900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>245400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>278500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>311600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>284100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>332500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>244800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>231000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>261600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>251900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>262400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>290300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>263900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>280800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>258300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>361900</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>216100</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1105300</v>
+      </c>
+      <c r="E27" s="3">
         <v>492900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>432100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>495000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>440000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>339800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>88800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>433900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>249800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>228000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-849900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>246100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>276800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>309800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>270300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>331500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>234200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>232600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>263400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>254200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>265400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>288300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>265800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>282900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>261200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>364700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2539,8 +2600,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2557,11 +2618,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-22000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2575,8 +2636,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,186 +2820,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-119300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-160600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-108800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-123700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-61400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-22700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-27200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-39800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-22500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>121200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-21800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-45800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-107400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-37100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-68400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-19900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-25000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-55800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-105900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-51900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-61700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-60500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-40800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-77200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-20800</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1105300</v>
+      </c>
+      <c r="E33" s="3">
         <v>492900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>432100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>495000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>440000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>339800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2000800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>88800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>433900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>249800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>228000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-849900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>246100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>276800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>309800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>270300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>331500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>234200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>232600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>263400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>254200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>265400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>266300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>265800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>282900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>261200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>364700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,191 +3096,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1105300</v>
+      </c>
+      <c r="E35" s="3">
         <v>492900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>432100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>495000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>440000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>339800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2000800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>88800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>433900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>249800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>228000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-849900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>246100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>276800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>309800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>270300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>331500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>234200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>232600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>263400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>254200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>265400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>266300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>265800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>282900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>261200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>364700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,97 +3355,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2415300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1153900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1089000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1597100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1098500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1229000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1185700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1728800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1311200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1402900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1447500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1248800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3244400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2382700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4693900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1121400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1036900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>782900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2348100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1204000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1176000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1598500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2152200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1659700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1454200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1601100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1935600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2035400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>2228000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3447,123 +3537,129 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E43" s="3">
         <v>561500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>624300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>593300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>487100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>469400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>567100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>636500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>647200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>525400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>349000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>343200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>428900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>419800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>279200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>403400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>330400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>276000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>241200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>260700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>335500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>266700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>286000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>425800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>301900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>259600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>218100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>253700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E44" s="3">
         <v>72600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>59200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>55900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>43000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>53400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>51900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>48600</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
@@ -3580,142 +3676,148 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>3200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>57200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>20300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>31000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>55000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>37100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>37000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>39000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>42300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>46900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>59400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>52700</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4592000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4467500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4709300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4522400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5346400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5234800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5056500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5039100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2070100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2078600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2421700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2237200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2800500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3465400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3212200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3052900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3012300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3038300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3069700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3104300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3400300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3241800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3468900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3037000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3430300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3521600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3324300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>3377200</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>3392600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3803,275 +3905,287 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2417800</v>
+        <v>3438900</v>
       </c>
       <c r="E47" s="3">
-        <v>2131400</v>
+        <v>3288200</v>
       </c>
       <c r="F47" s="3">
-        <v>2256200</v>
+        <v>2972600</v>
       </c>
       <c r="G47" s="3">
-        <v>2849800</v>
+        <v>3067400</v>
       </c>
       <c r="H47" s="3">
-        <v>3007700</v>
+        <v>3630300</v>
       </c>
       <c r="I47" s="3">
-        <v>3151100</v>
+        <v>3732400</v>
       </c>
       <c r="J47" s="3">
+        <v>3859700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2994700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1443300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1506000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1578100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1545700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1631300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1728600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1276600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1222600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1247600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1187800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1181300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1194400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1194800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1214800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1193300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1141100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1120600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>974200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>916700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>898000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>985800</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>56298000</v>
+      </c>
+      <c r="E48" s="3">
         <v>55675500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>55563100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>55302800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>54751400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>54433800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>54686500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>57946300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34465600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34797100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34626000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35219600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34799600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>35422400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35738700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35940500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35303800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35329900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>35159700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>35081500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>33215800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>32977000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>32187700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>32427900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>31610400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>30993100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>31595700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>31538400</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>30913200</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3021000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3151900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3334900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3549700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3800700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3974100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4118300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4653400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>802300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>828200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>850000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>874500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>912900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1031500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1076100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1117000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1230000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1276200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1381400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1441800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1528600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1617300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1734900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1857400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2036700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2205600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2415900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2565000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>2832800</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,97 +4365,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>813400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1177800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>996900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>662800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>267800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>347200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>439800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>611900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>537500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>368000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>399900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>378100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>390400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>513200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>626300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>610600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1113800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>846300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1002600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>533400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>827300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>656000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1076900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1146500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>747400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1176500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>735900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>652000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>930500</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,97 +4549,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>71593700</v>
+      </c>
+      <c r="E54" s="3">
         <v>69928400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69684400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>69726900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>69811200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>69747600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>70208200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>74569800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41499300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41824100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42065000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42048000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44421100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45193800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>47144800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43749200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43549000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>43067900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>44717000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>43208900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>42149500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>42019400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>42493700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>42040100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>41006700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>41019500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>41442900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>41620500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>41797800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,97 +4711,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E57" s="3">
         <v>475300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>582000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>475200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>711100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>730700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>750800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>850200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>263600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>281300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>243700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>222200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>223100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>220100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>240400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>239100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>233400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>245800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>272000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>294300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>274900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>283900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>303900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>307400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>288100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>295500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>302400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>330400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>276700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4714,23 +4848,23 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9000</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
@@ -4741,8 +4875,8 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4759,97 +4893,103 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4134200</v>
+      </c>
+      <c r="E59" s="3">
         <v>3889700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3814400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3782000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3535700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3578300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3512900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4200400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2329700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2566800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2650700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2670700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2697700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2876000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3186500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3244500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3336800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3326300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3413000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3268700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3363100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3314500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3492500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3544100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3690200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3806900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3878800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3896900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>4100200</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4937,186 +5077,195 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>47492800</v>
+      </c>
+      <c r="E61" s="3">
         <v>46255800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>46295900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>46533000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>47350100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>47927900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>48912900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>50204700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27539700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28098600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28553100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28742100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31087100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>30683900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32760800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29474500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>29280000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>29014200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30750100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>29507600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28387500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>28545500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>28890300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>28420700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>27287600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>27181000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>27520500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>27717000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>27997900</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2444000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2333900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2260000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2194100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1925700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1859500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1807600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2085200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1054900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>996000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>954000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>913400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>884100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>990300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>950200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>910300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>935800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>892200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>842100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>804600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>789900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>750500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>712400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>673900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>685900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>655900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>615300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>579000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>474100</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,97 +5537,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55300000</v>
+      </c>
+      <c r="E66" s="3">
         <v>53616500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53639000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53609400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54243500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54713200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55555100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>57999000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31644400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32440600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32925600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33183600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>35609700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>35559800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>37761900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34434300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34374100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34054900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>35810800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>34380900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33279700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>33349900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>33901100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>33460400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>32460300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>32498700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>32923200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>33096000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>33428300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,97 +6031,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9703300</v>
+      </c>
+      <c r="E72" s="3">
         <v>8598000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8104800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7674900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7181000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6741800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6408100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8410300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8322600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7888700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7625700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7399700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7380700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8232500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7986100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7734600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7424100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7157200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6825300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6591700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6359700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6096000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5846500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5580300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5313100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>5047300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>4767400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>4509000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>4147000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,97 +6399,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16293700</v>
+      </c>
+      <c r="E76" s="3">
         <v>16311900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16045400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16117500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15567700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15034400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14653100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16570700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9855000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9383500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9139300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8864500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8811400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9634000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9382900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9314900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9174900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9013000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8906200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8828000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8869900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8669500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>8592600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>8579700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>8546500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>8520800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>8519700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>8524400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>8369500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,191 +6583,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1105300</v>
+      </c>
+      <c r="E81" s="3">
         <v>492900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>432100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>495000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>440000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>339800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2000800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>88800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>433900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>249800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>228000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-849900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>246100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>276800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>309800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>270300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>331500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>234200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>232600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>263400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>254200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>265400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>266300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>265800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>282900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>261200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>364700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>225600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,97 +6808,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>623000</v>
+      </c>
+      <c r="E83" s="3">
         <v>615600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>610500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>593700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>580900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>580700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>634400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>555800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>393400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>392200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>396600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>401800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>416000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>411800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>415800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>415900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>415300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>419100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>425800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>428500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>415300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>422100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>425500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>428200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>431000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>438900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>442800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>438200</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>444600</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,97 +7358,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1305200</v>
+      </c>
+      <c r="E89" s="3">
         <v>1193200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1363400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1550600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1111900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1171900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1336600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1734500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>787800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>771200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>652500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>541000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>307900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>628900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>768300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>817100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>774500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>745700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>778400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>716700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>607300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>738000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>724300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>817200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>797200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>801500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>935200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>831100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,97 +7486,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1572800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1338700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1740700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-944700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1183100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-685000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1058800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-975800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-312900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-99100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-146100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-98600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-61300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-354100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-436100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-298900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-280300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-406700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-637200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-420300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-448000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-325800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-366900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-308500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-870900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1424200</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-856500</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,97 +7760,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-303100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-973200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1278100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-453600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-844200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-216100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-646600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23038300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-187300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-302600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>69300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-220800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>70000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-326200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-235200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-714600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-910900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-546100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-783200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1737800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1073100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-718900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-522900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1447000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-893300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-608400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-478700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-774500</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,8 +7888,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7744,8 +7978,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,271 +8254,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-166500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-579700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-403700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-897800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1259100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>21683500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-660400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-550600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-288700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2463400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>270100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2221500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3189500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>48700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>321700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1832400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1197100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>965800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-93700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-484500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>212800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>928800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-70800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-522900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-422700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-352100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-1274100</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>500</v>
       </c>
       <c r="J101" s="3">
         <v>500</v>
       </c>
       <c r="K101" s="3">
+        <v>500</v>
+      </c>
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1500</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-700</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
       <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-400</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
       <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
         <v>-1200</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1289700</v>
+      </c>
+      <c r="E102" s="3">
         <v>53300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-493100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-145700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>56200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-568500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>380200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-58900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-82100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>180200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2030500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>882700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2239400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3582200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>103700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>226300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1603900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1159200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-449700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-593700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>428000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>205400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-146800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-334600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-99800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-192600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-356500</v>
       </c>
     </row>
